--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Brief on Dimensional Modeling</t>
+  </si>
+  <si>
+    <t>https://youtu.be/imo62t3xJpA</t>
   </si>
 </sst>
 </file>
@@ -275,7 +278,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -565,7 +578,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +663,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H51" si="2">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A3,"000")," - ",B3)</f>
+        <f t="shared" ref="H3:H11" si="2">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A3,"000")," - ",B3)</f>
         <v>Learn Power BI In Arabic - #002 - Brief on Business Intelligence</v>
       </c>
     </row>
@@ -880,6 +893,9 @@
       <c r="F12" s="2">
         <v>44835</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="H12" t="str">
         <f>CONCATENATE("Learn Power BI In Arabic - #",TEXT(A12,"000")," - ",B12)</f>
         <v>Learn Power BI In Arabic - #011 - Demo #2 | Flat Files (CSV) | Import Mode</v>
@@ -1742,7 +1758,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1757,9 +1773,10 @@
     <hyperlink ref="G7" r:id="rId8"/>
     <hyperlink ref="G8" r:id="rId9"/>
     <hyperlink ref="G9" r:id="rId10"/>
+    <hyperlink ref="G12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -183,9 +183,6 @@
     <t>Learn Power BI In Arabic - #036 - Power BI Mobile Layout</t>
   </si>
   <si>
-    <t>Demo #3</t>
-  </si>
-  <si>
     <t>Demo #4</t>
   </si>
   <si>
@@ -208,6 +205,12 @@
   </si>
   <si>
     <t>https://youtu.be/imo62t3xJpA</t>
+  </si>
+  <si>
+    <t>Demo #3 | Flat File (Excel) | Import Mode</t>
+  </si>
+  <si>
+    <t>https://youtu.be/GEqpVwzFWq4</t>
   </si>
 </sst>
 </file>
@@ -278,17 +281,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -577,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +887,7 @@
         <v>44835</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" t="str">
         <f>CONCATENATE("Learn Power BI In Arabic - #",TEXT(A12,"000")," - ",B12)</f>
@@ -906,7 +899,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -919,9 +912,12 @@
       <c r="F13" s="2">
         <v>44842</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="H13" t="str">
         <f>CONCATENATE("Learn Power BI In Arabic - #",TEXT(A13,"000")," - ",B13)</f>
-        <v>Learn Power BI In Arabic - #012 - Demo #3</v>
+        <v>Learn Power BI In Arabic - #012 - Demo #3 | Flat File (Excel) | Import Mode</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -929,7 +925,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -952,7 +948,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -975,7 +971,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -998,7 +994,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -1021,7 +1017,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -1044,7 +1040,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -1435,7 +1431,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="4"/>
@@ -1458,7 +1454,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="4"/>
@@ -1758,7 +1754,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1774,9 +1770,10 @@
     <hyperlink ref="G8" r:id="rId9"/>
     <hyperlink ref="G9" r:id="rId10"/>
     <hyperlink ref="G12" r:id="rId11"/>
+    <hyperlink ref="G13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -118,69 +117,6 @@
   </si>
   <si>
     <t>Power BI Embedded</t>
-  </si>
-  <si>
-    <t>Learn Power BI In Arabic - #016 - Demo #6 | Flat File to Data Model (Star Schema)</t>
-  </si>
-  <si>
-    <t>Learn Power BI In Arabic - #017 - Demo #7 | Database tables to Data Model (Star Schema)</t>
-  </si>
-  <si>
-    <t>Learn Power BI In Arabic - #018 - Demo #8 | Analysis Service (SSAS &amp; AAS) | Live Mode</t>
-  </si>
-  <si>
-    <t>Learn Power BI In Arabic - #019 - Power BI Service</t>
-  </si>
-  <si>
-    <t>Learn Power BI In Arabic - #020 - Power BI Service | Create Free Account</t>
-  </si>
-  <si>
-    <t>Learn Power BI In Arabic - #021 - Power BI Service | Publish Reports</t>
-  </si>
-  <si>
-    <t>Learn Power BI In Arabic - #022 - Power BI Service | On-premises Data Gateway</t>
-  </si>
-  <si>
-    <t>Learn Power BI In Arabic - #023 - Power BI Service | Scheduled Refresh</t>
-  </si>
-  <si>
-    <t>Learn Power BI In Arabic - #024 - Power BI Service | Access</t>
-  </si>
-  <si>
-    <t>Learn Power BI In Arabic - #025 - Demo #9 | Power BI Dataset | Live Mode</t>
-  </si>
-  <si>
-    <t>Learn Power BI In Arabic - #026 - Power BI Dashboard</t>
-  </si>
-  <si>
-    <t>Learn Power BI In Arabic - #027 - Power BI Apps</t>
-  </si>
-  <si>
-    <t>Learn Power BI In Arabic - #028 - Power BI Report Server</t>
-  </si>
-  <si>
-    <t>Learn Power BI In Arabic - #029 - Power BI Report Server | Install &amp; Configure</t>
-  </si>
-  <si>
-    <t>Learn Power BI In Arabic - #030 - Power BI Report Server | Publish Reports</t>
-  </si>
-  <si>
-    <t>Learn Power BI In Arabic - #031 - Power BI Report Server | Access</t>
-  </si>
-  <si>
-    <t>Learn Power BI In Arabic - #032 - Power BI Report Server | Scheduled Refresh</t>
-  </si>
-  <si>
-    <t>Learn Power BI In Arabic - #033 - Power BI Embedded</t>
-  </si>
-  <si>
-    <t>Learn Power BI In Arabic - #034 - Power BI Embedded | Way #1 | No Or Low Code</t>
-  </si>
-  <si>
-    <t>Learn Power BI In Arabic - #035 - Power BI Mobile App</t>
-  </si>
-  <si>
-    <t>Learn Power BI In Arabic - #036 - Power BI Mobile Layout</t>
   </si>
   <si>
     <t>Demo #4</t>
@@ -571,7 +507,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,7 +823,7 @@
         <v>44835</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H12" t="str">
         <f>CONCATENATE("Learn Power BI In Arabic - #",TEXT(A12,"000")," - ",B12)</f>
@@ -899,7 +835,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -913,7 +849,7 @@
         <v>44842</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="H13" t="str">
         <f>CONCATENATE("Learn Power BI In Arabic - #",TEXT(A13,"000")," - ",B13)</f>
@@ -925,7 +861,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -948,7 +884,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -971,7 +907,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -994,7 +930,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -1017,7 +953,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -1040,7 +976,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -1431,7 +1367,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="4"/>
@@ -1454,7 +1390,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="4"/>
@@ -1775,211 +1711,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="80.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="str">
-        <f>CONCATENATE("=&gt; ",A1)</f>
-        <v>=&gt; Learn Power BI In Arabic - #016 - Demo #6 | Flat File to Data Model (Star Schema)</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B21" si="0">CONCATENATE("=&gt; ",A2)</f>
-        <v>=&gt; Learn Power BI In Arabic - #017 - Demo #7 | Database tables to Data Model (Star Schema)</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" si="0"/>
-        <v>=&gt; Learn Power BI In Arabic - #018 - Demo #8 | Analysis Service (SSAS &amp; AAS) | Live Mode</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>=&gt; Learn Power BI In Arabic - #019 - Power BI Service</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>=&gt; Learn Power BI In Arabic - #020 - Power BI Service | Create Free Account</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>=&gt; Learn Power BI In Arabic - #021 - Power BI Service | Publish Reports</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>=&gt; Learn Power BI In Arabic - #022 - Power BI Service | On-premises Data Gateway</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>=&gt; Learn Power BI In Arabic - #023 - Power BI Service | Scheduled Refresh</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>=&gt; Learn Power BI In Arabic - #024 - Power BI Service | Access</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>=&gt; Learn Power BI In Arabic - #025 - Demo #9 | Power BI Dataset | Live Mode</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>=&gt; Learn Power BI In Arabic - #026 - Power BI Dashboard</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>=&gt; Learn Power BI In Arabic - #027 - Power BI Apps</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>=&gt; Learn Power BI In Arabic - #028 - Power BI Report Server</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>=&gt; Learn Power BI In Arabic - #029 - Power BI Report Server | Install &amp; Configure</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>=&gt; Learn Power BI In Arabic - #030 - Power BI Report Server | Publish Reports</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>=&gt; Learn Power BI In Arabic - #031 - Power BI Report Server | Access</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>=&gt; Learn Power BI In Arabic - #032 - Power BI Report Server | Scheduled Refresh</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>=&gt; Learn Power BI In Arabic - #033 - Power BI Embedded</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>=&gt; Learn Power BI In Arabic - #034 - Power BI Embedded | Way #1 | No Or Low Code</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>=&gt; Learn Power BI In Arabic - #035 - Power BI Mobile App</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>=&gt; Learn Power BI In Arabic - #036 - Power BI Mobile Layout</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Power BI Embedded</t>
   </si>
   <si>
-    <t>Demo #4</t>
-  </si>
-  <si>
     <t>Demo #5</t>
   </si>
   <si>
@@ -147,6 +144,12 @@
   </si>
   <si>
     <t>https://youtu.be/GEqpVwzFWq4</t>
+  </si>
+  <si>
+    <t>Demo #4 | Database (SQL Server) | Import Mode</t>
+  </si>
+  <si>
+    <t>https://youtu.be/nNLy0MIn_Jw</t>
   </si>
 </sst>
 </file>
@@ -506,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +826,7 @@
         <v>44835</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" t="str">
         <f>CONCATENATE("Learn Power BI In Arabic - #",TEXT(A12,"000")," - ",B12)</f>
@@ -835,7 +838,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -849,7 +852,7 @@
         <v>44842</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" t="str">
         <f>CONCATENATE("Learn Power BI In Arabic - #",TEXT(A13,"000")," - ",B13)</f>
@@ -861,7 +864,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -874,9 +877,12 @@
       <c r="F14" s="2">
         <v>44849</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="H14" t="str">
         <f t="shared" ref="H14:H51" si="3">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A14,"000")," - ",B14)</f>
-        <v>Learn Power BI In Arabic - #013 - Demo #4</v>
+        <v>Learn Power BI In Arabic - #013 - Demo #4 | Database (SQL Server) | Import Mode</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -884,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -907,7 +913,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -930,7 +936,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -953,7 +959,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -976,7 +982,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -1367,7 +1373,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="4"/>
@@ -1390,7 +1396,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="4"/>
@@ -1707,8 +1713,9 @@
     <hyperlink ref="G9" r:id="rId10"/>
     <hyperlink ref="G12" r:id="rId11"/>
     <hyperlink ref="G13" r:id="rId12"/>
+    <hyperlink ref="G14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Power BI Embedded</t>
   </si>
   <si>
-    <t>Demo #5</t>
-  </si>
-  <si>
     <t>Demo #6</t>
   </si>
   <si>
@@ -150,6 +147,12 @@
   </si>
   <si>
     <t>https://youtu.be/nNLy0MIn_Jw</t>
+  </si>
+  <si>
+    <t>https://youtu.be/i_R6ClQtzZ0</t>
+  </si>
+  <si>
+    <t>Demo #5 | Database (SQL Server) | DirectQuery Mode</t>
   </si>
 </sst>
 </file>
@@ -510,7 +513,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,7 +829,7 @@
         <v>44835</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" t="str">
         <f>CONCATENATE("Learn Power BI In Arabic - #",TEXT(A12,"000")," - ",B12)</f>
@@ -838,7 +841,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -852,7 +855,7 @@
         <v>44842</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" t="str">
         <f>CONCATENATE("Learn Power BI In Arabic - #",TEXT(A13,"000")," - ",B13)</f>
@@ -864,7 +867,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -878,7 +881,7 @@
         <v>44849</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" ref="H14:H51" si="3">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A14,"000")," - ",B14)</f>
@@ -890,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -903,9 +906,12 @@
       <c r="F15" s="2">
         <v>44856</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #014 - Demo #5</v>
+        <v>Learn Power BI In Arabic - #014 - Demo #5 | Database (SQL Server) | DirectQuery Mode</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -913,7 +919,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -936,7 +942,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -959,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -982,7 +988,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -1373,7 +1379,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="4"/>
@@ -1396,7 +1402,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="4"/>
@@ -1714,8 +1720,9 @@
     <hyperlink ref="G12" r:id="rId11"/>
     <hyperlink ref="G13" r:id="rId12"/>
     <hyperlink ref="G14" r:id="rId13"/>
+    <hyperlink ref="G15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Power BI Mobile</t>
   </si>
   <si>
-    <t>Brief on Dimensional Modeling</t>
-  </si>
-  <si>
     <t>https://youtu.be/imo62t3xJpA</t>
   </si>
   <si>
@@ -153,6 +150,12 @@
   </si>
   <si>
     <t>Demo #5 | Database (SQL Server) | DirectQuery Mode</t>
+  </si>
+  <si>
+    <t>https://youtu.be/mTYsJkuzrr8</t>
+  </si>
+  <si>
+    <t>Brief on Dimensional Modeling | Why Star Schema is Important in Power BI?</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +832,7 @@
         <v>44835</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" t="str">
         <f>CONCATENATE("Learn Power BI In Arabic - #",TEXT(A12,"000")," - ",B12)</f>
@@ -841,7 +844,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -855,7 +858,7 @@
         <v>44842</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" t="str">
         <f>CONCATENATE("Learn Power BI In Arabic - #",TEXT(A13,"000")," - ",B13)</f>
@@ -867,7 +870,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -881,7 +884,7 @@
         <v>44849</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" ref="H14:H51" si="3">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A14,"000")," - ",B14)</f>
@@ -893,7 +896,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -907,7 +910,7 @@
         <v>44856</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
@@ -919,7 +922,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -932,9 +935,12 @@
       <c r="F16" s="2">
         <v>44863</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="H16" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #015 - Brief on Dimensional Modeling</v>
+        <v>Learn Power BI In Arabic - #015 - Brief on Dimensional Modeling | Why Star Schema is Important in Power BI?</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1721,8 +1727,9 @@
     <hyperlink ref="G13" r:id="rId12"/>
     <hyperlink ref="G14" r:id="rId13"/>
     <hyperlink ref="G15" r:id="rId14"/>
+    <hyperlink ref="G16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Power BI Embedded</t>
   </si>
   <si>
-    <t>Demo #6</t>
-  </si>
-  <si>
     <t>Demo #7</t>
   </si>
   <si>
@@ -156,6 +153,12 @@
   </si>
   <si>
     <t>Brief on Dimensional Modeling | Why Star Schema is Important in Power BI?</t>
+  </si>
+  <si>
+    <t>Demo #6 | Flat File to Data Model (Star Schema)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/kcivtpyExEk</t>
   </si>
 </sst>
 </file>
@@ -516,7 +519,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +835,7 @@
         <v>44835</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" t="str">
         <f>CONCATENATE("Learn Power BI In Arabic - #",TEXT(A12,"000")," - ",B12)</f>
@@ -844,7 +847,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -858,7 +861,7 @@
         <v>44842</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" t="str">
         <f>CONCATENATE("Learn Power BI In Arabic - #",TEXT(A13,"000")," - ",B13)</f>
@@ -870,7 +873,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -884,7 +887,7 @@
         <v>44849</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" ref="H14:H51" si="3">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A14,"000")," - ",B14)</f>
@@ -896,7 +899,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -910,7 +913,7 @@
         <v>44856</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
@@ -922,7 +925,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -936,7 +939,7 @@
         <v>44863</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="3"/>
@@ -948,7 +951,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -961,9 +964,12 @@
       <c r="F17" s="2">
         <v>44870</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #016 - Demo #6</v>
+        <v>Learn Power BI In Arabic - #016 - Demo #6 | Flat File to Data Model (Star Schema)</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -971,7 +977,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -994,7 +1000,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -1385,7 +1391,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="4"/>
@@ -1408,7 +1414,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="4"/>
@@ -1728,8 +1734,9 @@
     <hyperlink ref="G14" r:id="rId13"/>
     <hyperlink ref="G15" r:id="rId14"/>
     <hyperlink ref="G16" r:id="rId15"/>
+    <hyperlink ref="G17" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -155,10 +155,10 @@
     <t>Brief on Dimensional Modeling | Why Star Schema is Important in Power BI?</t>
   </si>
   <si>
-    <t>Demo #6 | Flat File to Data Model (Star Schema)</t>
-  </si>
-  <si>
     <t>https://youtu.be/kcivtpyExEk</t>
+  </si>
+  <si>
+    <t>Demo #6 | Flat File to Data Model | Single Table to Star Schema</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,7 +951,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -965,11 +965,11 @@
         <v>44870</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #016 - Demo #6 | Flat File to Data Model (Star Schema)</v>
+        <v>Learn Power BI In Arabic - #016 - Demo #6 | Flat File to Data Model | Single Table to Star Schema</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">

--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Power BI Embedded</t>
   </si>
   <si>
-    <t>Demo #7</t>
-  </si>
-  <si>
     <t>Demo #8</t>
   </si>
   <si>
@@ -159,6 +156,12 @@
   </si>
   <si>
     <t>Demo #6 | Flat File to Data Model | Single Table to Star Schema</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Yv1Ic0rPXN0</t>
+  </si>
+  <si>
+    <t>Demo #7 | Database Tables to Data Model | ER Mode to Star Schema</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,7 +838,7 @@
         <v>44835</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12" t="str">
         <f>CONCATENATE("Learn Power BI In Arabic - #",TEXT(A12,"000")," - ",B12)</f>
@@ -847,7 +850,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -861,7 +864,7 @@
         <v>44842</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" t="str">
         <f>CONCATENATE("Learn Power BI In Arabic - #",TEXT(A13,"000")," - ",B13)</f>
@@ -873,7 +876,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -887,7 +890,7 @@
         <v>44849</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" ref="H14:H51" si="3">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A14,"000")," - ",B14)</f>
@@ -899,7 +902,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -913,7 +916,7 @@
         <v>44856</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
@@ -925,7 +928,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -939,7 +942,7 @@
         <v>44863</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="3"/>
@@ -951,7 +954,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -965,7 +968,7 @@
         <v>44870</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
@@ -977,7 +980,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -990,9 +993,12 @@
       <c r="F18" s="2">
         <v>44877</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="H18" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #017 - Demo #7</v>
+        <v>Learn Power BI In Arabic - #017 - Demo #7 | Database Tables to Data Model | ER Mode to Star Schema</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1000,7 +1006,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -1391,7 +1397,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="4"/>
@@ -1414,7 +1420,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="4"/>
@@ -1735,8 +1741,9 @@
     <hyperlink ref="G15" r:id="rId14"/>
     <hyperlink ref="G16" r:id="rId15"/>
     <hyperlink ref="G17" r:id="rId16"/>
+    <hyperlink ref="G18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Power BI Embedded</t>
   </si>
   <si>
-    <t>Demo #8</t>
-  </si>
-  <si>
     <t>Power BI Mobile</t>
   </si>
   <si>
@@ -162,6 +159,12 @@
   </si>
   <si>
     <t>Demo #7 | Database Tables to Data Model | ER Mode to Star Schema</t>
+  </si>
+  <si>
+    <t>Demo #8 | SSAS &amp; AAS | Live Mode | Analysis Service From Scratch</t>
+  </si>
+  <si>
+    <t>https://youtu.be/_qvSFe5e9RM</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,7 +841,7 @@
         <v>44835</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" t="str">
         <f>CONCATENATE("Learn Power BI In Arabic - #",TEXT(A12,"000")," - ",B12)</f>
@@ -850,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -864,7 +867,7 @@
         <v>44842</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" t="str">
         <f>CONCATENATE("Learn Power BI In Arabic - #",TEXT(A13,"000")," - ",B13)</f>
@@ -876,7 +879,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -890,7 +893,7 @@
         <v>44849</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" ref="H14:H51" si="3">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A14,"000")," - ",B14)</f>
@@ -902,7 +905,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -916,7 +919,7 @@
         <v>44856</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
@@ -928,7 +931,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -942,7 +945,7 @@
         <v>44863</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="3"/>
@@ -954,7 +957,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -968,7 +971,7 @@
         <v>44870</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
@@ -980,7 +983,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -994,7 +997,7 @@
         <v>44877</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="3"/>
@@ -1006,7 +1009,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -1019,9 +1022,12 @@
       <c r="F19" s="2">
         <v>44884</v>
       </c>
+      <c r="G19" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="H19" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #018 - Demo #8</v>
+        <v>Learn Power BI In Arabic - #018 - Demo #8 | SSAS &amp; AAS | Live Mode | Analysis Service From Scratch</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1397,7 +1403,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="4"/>
@@ -1420,7 +1426,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="4"/>
@@ -1742,8 +1748,9 @@
     <hyperlink ref="G16" r:id="rId15"/>
     <hyperlink ref="G17" r:id="rId16"/>
     <hyperlink ref="G18" r:id="rId17"/>
+    <hyperlink ref="G19" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>https://youtu.be/_qvSFe5e9RM</t>
+  </si>
+  <si>
+    <t>https://youtu.be/GO-n_i7E-Yk</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,6 +1050,9 @@
       </c>
       <c r="F20" s="2">
         <v>44891</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="3"/>
@@ -1749,8 +1755,9 @@
     <hyperlink ref="G17" r:id="rId16"/>
     <hyperlink ref="G18" r:id="rId17"/>
     <hyperlink ref="G19" r:id="rId18"/>
+    <hyperlink ref="G20" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>https://youtu.be/GO-n_i7E-Yk</t>
+  </si>
+  <si>
+    <t>Demo #9 | Power BI Service | Create Free Account</t>
+  </si>
+  <si>
+    <t>https://youtu.be/z4ElaywUr80</t>
   </si>
 </sst>
 </file>
@@ -528,7 +534,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,11 +1070,11 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="1"/>
@@ -1077,9 +1083,12 @@
       <c r="F21" s="2">
         <v>44898</v>
       </c>
+      <c r="G21" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #020 - Power BI Service</v>
+        <v>Learn Power BI In Arabic - #020 - Demo #9 | Power BI Service | Create Free Account</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1756,8 +1765,9 @@
     <hyperlink ref="G18" r:id="rId17"/>
     <hyperlink ref="G19" r:id="rId18"/>
     <hyperlink ref="G20" r:id="rId19"/>
+    <hyperlink ref="G21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -104,12 +104,6 @@
     <t>Download and Install Power BI Desktop | Free</t>
   </si>
   <si>
-    <t>Demo #1 | Web Page | Import Mode</t>
-  </si>
-  <si>
-    <t>Demo #2 | Flat Files (CSV) | Import Mode</t>
-  </si>
-  <si>
     <t>Power BI Service</t>
   </si>
   <si>
@@ -125,55 +119,67 @@
     <t>https://youtu.be/imo62t3xJpA</t>
   </si>
   <si>
-    <t>Demo #3 | Flat File (Excel) | Import Mode</t>
-  </si>
-  <si>
     <t>https://youtu.be/GEqpVwzFWq4</t>
   </si>
   <si>
-    <t>Demo #4 | Database (SQL Server) | Import Mode</t>
-  </si>
-  <si>
     <t>https://youtu.be/nNLy0MIn_Jw</t>
   </si>
   <si>
     <t>https://youtu.be/i_R6ClQtzZ0</t>
   </si>
   <si>
-    <t>Demo #5 | Database (SQL Server) | DirectQuery Mode</t>
-  </si>
-  <si>
     <t>https://youtu.be/mTYsJkuzrr8</t>
   </si>
   <si>
-    <t>Brief on Dimensional Modeling | Why Star Schema is Important in Power BI?</t>
-  </si>
-  <si>
     <t>https://youtu.be/kcivtpyExEk</t>
   </si>
   <si>
-    <t>Demo #6 | Flat File to Data Model | Single Table to Star Schema</t>
-  </si>
-  <si>
     <t>https://youtu.be/Yv1Ic0rPXN0</t>
   </si>
   <si>
-    <t>Demo #7 | Database Tables to Data Model | ER Mode to Star Schema</t>
-  </si>
-  <si>
-    <t>Demo #8 | SSAS &amp; AAS | Live Mode | Analysis Service From Scratch</t>
-  </si>
-  <si>
     <t>https://youtu.be/_qvSFe5e9RM</t>
   </si>
   <si>
     <t>https://youtu.be/GO-n_i7E-Yk</t>
   </si>
   <si>
-    <t>Demo #9 | Power BI Service | Create Free Account</t>
-  </si>
-  <si>
     <t>https://youtu.be/z4ElaywUr80</t>
+  </si>
+  <si>
+    <t>Demo #10 | Power BI Service | Publish Reports | Use Reports</t>
+  </si>
+  <si>
+    <t>Demo #01 | Web Page | Import Mode</t>
+  </si>
+  <si>
+    <t>Demo #02 | Flat Files (CSV) | Import Mode</t>
+  </si>
+  <si>
+    <t>Demo #03 | Flat File (Excel) | Import Mode</t>
+  </si>
+  <si>
+    <t>Demo #04 | Database (SQL Server) | Import Mode</t>
+  </si>
+  <si>
+    <t>Demo #05 | Database (SQL Server) | DirectQuery Mode</t>
+  </si>
+  <si>
+    <t>Brief on Dimensional Modeling | Why Star Schema is Important?</t>
+  </si>
+  <si>
+    <t>Demo #06 | Flat File to Data Model | Single Table to Star Schema</t>
+  </si>
+  <si>
+    <t>Demo #07 | Database Tables to Data Model | ER Mode to Star Schema</t>
+  </si>
+  <si>
+    <t>Demo #08 | SSAS &amp; AAS | Live Mode | Analysis Service From Scratch</t>
+  </si>
+  <si>
+    <t>Demo #09 | Power BI Service | Create Free Account</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Z5U2xY9LdJ0</t>
   </si>
 </sst>
 </file>
@@ -534,7 +540,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,7 +816,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -828,7 +834,7 @@
       </c>
       <c r="H11" t="str">
         <f t="shared" si="2"/>
-        <v>Learn Power BI In Arabic - #010 - Demo #1 | Web Page | Import Mode</v>
+        <v>Learn Power BI In Arabic - #010 - Demo #01 | Web Page | Import Mode</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -836,7 +842,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -850,11 +856,11 @@
         <v>44835</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" t="str">
         <f>CONCATENATE("Learn Power BI In Arabic - #",TEXT(A12,"000")," - ",B12)</f>
-        <v>Learn Power BI In Arabic - #011 - Demo #2 | Flat Files (CSV) | Import Mode</v>
+        <v>Learn Power BI In Arabic - #011 - Demo #02 | Flat Files (CSV) | Import Mode</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -862,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -876,11 +882,11 @@
         <v>44842</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H13" t="str">
         <f>CONCATENATE("Learn Power BI In Arabic - #",TEXT(A13,"000")," - ",B13)</f>
-        <v>Learn Power BI In Arabic - #012 - Demo #3 | Flat File (Excel) | Import Mode</v>
+        <v>Learn Power BI In Arabic - #012 - Demo #03 | Flat File (Excel) | Import Mode</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -888,7 +894,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -902,11 +908,11 @@
         <v>44849</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" ref="H14:H51" si="3">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A14,"000")," - ",B14)</f>
-        <v>Learn Power BI In Arabic - #013 - Demo #4 | Database (SQL Server) | Import Mode</v>
+        <v>Learn Power BI In Arabic - #013 - Demo #04 | Database (SQL Server) | Import Mode</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -914,7 +920,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -928,11 +934,11 @@
         <v>44856</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #014 - Demo #5 | Database (SQL Server) | DirectQuery Mode</v>
+        <v>Learn Power BI In Arabic - #014 - Demo #05 | Database (SQL Server) | DirectQuery Mode</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -940,7 +946,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -954,11 +960,11 @@
         <v>44863</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #015 - Brief on Dimensional Modeling | Why Star Schema is Important in Power BI?</v>
+        <v>Learn Power BI In Arabic - #015 - Brief on Dimensional Modeling | Why Star Schema is Important?</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -966,7 +972,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -980,11 +986,11 @@
         <v>44870</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #016 - Demo #6 | Flat File to Data Model | Single Table to Star Schema</v>
+        <v>Learn Power BI In Arabic - #016 - Demo #06 | Flat File to Data Model | Single Table to Star Schema</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -992,7 +998,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -1006,11 +1012,11 @@
         <v>44877</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #017 - Demo #7 | Database Tables to Data Model | ER Mode to Star Schema</v>
+        <v>Learn Power BI In Arabic - #017 - Demo #07 | Database Tables to Data Model | ER Mode to Star Schema</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1018,7 +1024,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -1032,11 +1038,11 @@
         <v>44884</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #018 - Demo #8 | SSAS &amp; AAS | Live Mode | Analysis Service From Scratch</v>
+        <v>Learn Power BI In Arabic - #018 - Demo #08 | SSAS &amp; AAS | Live Mode | Analysis Service From Scratch</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1044,7 +1050,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -1058,7 +1064,7 @@
         <v>44891</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="3"/>
@@ -1070,7 +1076,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
@@ -1084,11 +1090,11 @@
         <v>44898</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #020 - Demo #9 | Power BI Service | Create Free Account</v>
+        <v>Learn Power BI In Arabic - #020 - Demo #09 | Power BI Service | Create Free Account</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1096,11 +1102,11 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="1"/>
@@ -1109,9 +1115,12 @@
       <c r="F22" s="2">
         <v>44905</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="H22" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #021 - Power BI Service</v>
+        <v>Learn Power BI In Arabic - #021 - Demo #10 | Power BI Service | Publish Reports | Use Reports</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1119,7 +1128,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -1142,7 +1151,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -1165,7 +1174,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -1188,7 +1197,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -1211,7 +1220,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -1234,7 +1243,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -1257,7 +1266,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -1280,7 +1289,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -1303,7 +1312,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -1326,7 +1335,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -1349,7 +1358,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -1372,7 +1381,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" ref="D34:D51" si="4">IF(ISNUMBER(SEARCH("Demo",H34)), "Demo", "Lesson")</f>
@@ -1395,7 +1404,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="4"/>
@@ -1418,7 +1427,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="4"/>
@@ -1441,7 +1450,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="4"/>
@@ -1766,8 +1775,9 @@
     <hyperlink ref="G19" r:id="rId18"/>
     <hyperlink ref="G20" r:id="rId19"/>
     <hyperlink ref="G21" r:id="rId20"/>
+    <hyperlink ref="G22" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>https://youtu.be/Z5U2xY9LdJ0</t>
+  </si>
+  <si>
+    <t>Demo #11 | Power BI Service | On-premises Data Gateway | Refresh</t>
+  </si>
+  <si>
+    <t>https://youtu.be/7Dy5fcchvP4</t>
   </si>
 </sst>
 </file>
@@ -1128,11 +1134,11 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="1"/>
@@ -1141,9 +1147,12 @@
       <c r="F23" s="2">
         <v>44912</v>
       </c>
+      <c r="G23" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="H23" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #022 - Power BI Service</v>
+        <v>Learn Power BI In Arabic - #022 - Demo #11 | Power BI Service | On-premises Data Gateway | Refresh</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1776,8 +1785,9 @@
     <hyperlink ref="G20" r:id="rId19"/>
     <hyperlink ref="G21" r:id="rId20"/>
     <hyperlink ref="G22" r:id="rId21"/>
+    <hyperlink ref="G23" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>https://youtu.be/7Dy5fcchvP4</t>
+  </si>
+  <si>
+    <t>Demo #12 | Power BI Service | Access &amp; Share</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Z6c16gXe2kc</t>
   </si>
 </sst>
 </file>
@@ -1160,11 +1166,11 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="1"/>
@@ -1173,9 +1179,12 @@
       <c r="F24" s="2">
         <v>44919</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="H24" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #023 - Power BI Service</v>
+        <v>Learn Power BI In Arabic - #023 - Demo #12 | Power BI Service | Access &amp; Share</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1786,8 +1795,9 @@
     <hyperlink ref="G21" r:id="rId20"/>
     <hyperlink ref="G22" r:id="rId21"/>
     <hyperlink ref="G23" r:id="rId22"/>
+    <hyperlink ref="G24" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>https://youtu.be/Z6c16gXe2kc</t>
+  </si>
+  <si>
+    <t>https://youtu.be/LO-UZ6RMbJU</t>
+  </si>
+  <si>
+    <t>Demo #13 | Power BI Service | Create Free Account | novyPro</t>
   </si>
 </sst>
 </file>
@@ -551,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,11 +1198,11 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="1"/>
@@ -1205,9 +1211,12 @@
       <c r="F25" s="2">
         <v>44926</v>
       </c>
+      <c r="G25" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #024 - Power BI Service</v>
+        <v>Learn Power BI In Arabic - #024 - Demo #13 | Power BI Service | Create Free Account | novyPro</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1796,8 +1805,9 @@
     <hyperlink ref="G22" r:id="rId21"/>
     <hyperlink ref="G23" r:id="rId22"/>
     <hyperlink ref="G24" r:id="rId23"/>
+    <hyperlink ref="G25" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>Demo #13 | Power BI Service | Create Free Account | novyPro</t>
+  </si>
+  <si>
+    <t>Demo #14 | Power BI Dataset | Live Mode | Shared Dataset</t>
+  </si>
+  <si>
+    <t>https://youtu.be/u0A5OhZPUsU</t>
   </si>
 </sst>
 </file>
@@ -558,7 +564,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,11 +1230,11 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="1"/>
@@ -1237,9 +1243,12 @@
       <c r="F26" s="2">
         <v>44933</v>
       </c>
+      <c r="G26" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="H26" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #025 - Power BI Service</v>
+        <v>Learn Power BI In Arabic - #025 - Demo #14 | Power BI Dataset | Live Mode | Shared Dataset</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1806,8 +1815,9 @@
     <hyperlink ref="G23" r:id="rId22"/>
     <hyperlink ref="G24" r:id="rId23"/>
     <hyperlink ref="G25" r:id="rId24"/>
+    <hyperlink ref="G26" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>https://youtu.be/u0A5OhZPUsU</t>
+  </si>
+  <si>
+    <t>Demo #15 | Power BI Service | Row-Level Security | RLS</t>
+  </si>
+  <si>
+    <t>https://youtu.be/9XzJ-EC8K_g</t>
   </si>
 </sst>
 </file>
@@ -274,7 +280,57 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -561,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D33" si="0">IF(ISNUMBER(SEARCH("Demo",H2)), "Demo", "Lesson")</f>
+        <f t="shared" ref="D2:D38" si="0">IF(ISNUMBER(SEARCH("Demo",H2)), "Demo", "Lesson")</f>
         <v>Lesson</v>
       </c>
       <c r="E2" t="str">
@@ -639,7 +695,7 @@
         <v>Lesson</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E51" si="1">TEXT(F3, "dddd")</f>
+        <f t="shared" ref="E3:E56" si="1">TEXT(F3, "dddd")</f>
         <v>Saturday</v>
       </c>
       <c r="F3" s="2">
@@ -935,7 +991,7 @@
         <v>32</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" ref="H14:H51" si="3">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A14,"000")," - ",B14)</f>
+        <f t="shared" ref="H14:H56" si="3">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A14,"000")," - ",B14)</f>
         <v>Learn Power BI In Arabic - #013 - Demo #04 | Database (SQL Server) | Import Mode</v>
       </c>
     </row>
@@ -1256,11 +1312,11 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="1"/>
@@ -1269,9 +1325,12 @@
       <c r="F27" s="2">
         <v>44940</v>
       </c>
+      <c r="G27" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="H27" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #026 - Power BI Service</v>
+        <v>Learn Power BI In Arabic - #026 - Demo #15 | Power BI Service | Row-Level Security | RLS</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1282,18 +1341,18 @@
         <v>26</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D28:D30" si="4">IF(ISNUMBER(SEARCH("Demo",H28)), "Demo", "Lesson")</f>
         <v>Lesson</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E28:E30" si="5">TEXT(F28, "dddd")</f>
         <v>Saturday</v>
       </c>
       <c r="F28" s="2">
         <v>44947</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H28:H30" si="6">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A28,"000")," - ",B28)</f>
         <v>Learn Power BI In Arabic - #027 - Power BI Service</v>
       </c>
     </row>
@@ -1302,22 +1361,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Lesson</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Saturday</v>
       </c>
       <c r="F29" s="2">
         <v>44954</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #028 - Power BI Report Server</v>
+        <f t="shared" si="6"/>
+        <v>Learn Power BI In Arabic - #028 - Power BI Service</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1325,22 +1384,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Lesson</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>Saturday</v>
       </c>
       <c r="F30" s="2">
         <v>44961</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #029 - Power BI Report Server</v>
+        <f t="shared" si="6"/>
+        <v>Learn Power BI In Arabic - #029 - Power BI Service</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1348,7 +1407,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -1363,7 +1422,7 @@
       </c>
       <c r="H31" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #030 - Power BI Report Server</v>
+        <v>Learn Power BI In Arabic - #030 - Power BI Service</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1371,22 +1430,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D32" si="7">IF(ISNUMBER(SEARCH("Demo",H32)), "Demo", "Lesson")</f>
         <v>Lesson</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E32" si="8">TEXT(F32, "dddd")</f>
         <v>Saturday</v>
       </c>
       <c r="F32" s="2">
         <v>44975</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #031 - Power BI Report Server</v>
+        <f t="shared" ref="H32" si="9">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A32,"000")," - ",B32)</f>
+        <v>Learn Power BI In Arabic - #031 - Power BI Service</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1394,7 +1453,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -1409,7 +1468,7 @@
       </c>
       <c r="H33" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #032 - Power BI Report Server</v>
+        <v>Learn Power BI In Arabic - #032 - Power BI Service</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1417,10 +1476,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:D51" si="4">IF(ISNUMBER(SEARCH("Demo",H34)), "Demo", "Lesson")</f>
+        <f t="shared" si="0"/>
         <v>Lesson</v>
       </c>
       <c r="E34" t="str">
@@ -1432,7 +1491,7 @@
       </c>
       <c r="H34" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #033 - Power BI Embedded</v>
+        <v>Learn Power BI In Arabic - #033 - Power BI Report Server</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1440,10 +1499,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Lesson</v>
       </c>
       <c r="E35" t="str">
@@ -1455,7 +1514,7 @@
       </c>
       <c r="H35" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #034 - Power BI Embedded</v>
+        <v>Learn Power BI In Arabic - #034 - Power BI Report Server</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1463,10 +1522,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Lesson</v>
       </c>
       <c r="E36" t="str">
@@ -1478,7 +1537,7 @@
       </c>
       <c r="H36" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #035 - Power BI Mobile</v>
+        <v>Learn Power BI In Arabic - #035 - Power BI Report Server</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1486,10 +1545,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Lesson</v>
       </c>
       <c r="E37" t="str">
@@ -1501,15 +1560,18 @@
       </c>
       <c r="H37" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #036 - Power BI Mobile</v>
+        <v>Learn Power BI In Arabic - #036 - Power BI Report Server</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
       <c r="D38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>Lesson</v>
       </c>
       <c r="E38" t="str">
@@ -1521,15 +1583,18 @@
       </c>
       <c r="H38" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #037 - </v>
+        <v>Learn Power BI In Arabic - #037 - Power BI Report Server</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
       <c r="D39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D39:D56" si="10">IF(ISNUMBER(SEARCH("Demo",H39)), "Demo", "Lesson")</f>
         <v>Lesson</v>
       </c>
       <c r="E39" t="str">
@@ -1541,15 +1606,18 @@
       </c>
       <c r="H39" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #038 - </v>
+        <v>Learn Power BI In Arabic - #038 - Power BI Embedded</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
       <c r="D40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>Lesson</v>
       </c>
       <c r="E40" t="str">
@@ -1561,15 +1629,18 @@
       </c>
       <c r="H40" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #039 - </v>
+        <v>Learn Power BI In Arabic - #039 - Power BI Embedded</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
       <c r="D41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>Lesson</v>
       </c>
       <c r="E41" t="str">
@@ -1581,15 +1652,18 @@
       </c>
       <c r="H41" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #040 - </v>
+        <v>Learn Power BI In Arabic - #040 - Power BI Mobile</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
       <c r="D42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>Lesson</v>
       </c>
       <c r="E42" t="str">
@@ -1601,7 +1675,7 @@
       </c>
       <c r="H42" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #041 - </v>
+        <v>Learn Power BI In Arabic - #041 - Power BI Mobile</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1609,7 +1683,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>Lesson</v>
       </c>
       <c r="E43" t="str">
@@ -1629,7 +1703,7 @@
         <v>43</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>Lesson</v>
       </c>
       <c r="E44" t="str">
@@ -1649,7 +1723,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>Lesson</v>
       </c>
       <c r="E45" t="str">
@@ -1669,7 +1743,7 @@
         <v>45</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>Lesson</v>
       </c>
       <c r="E46" t="str">
@@ -1689,7 +1763,7 @@
         <v>46</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>Lesson</v>
       </c>
       <c r="E47" t="str">
@@ -1709,7 +1783,7 @@
         <v>47</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>Lesson</v>
       </c>
       <c r="E48" t="str">
@@ -1729,7 +1803,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>Lesson</v>
       </c>
       <c r="E49" t="str">
@@ -1749,7 +1823,7 @@
         <v>49</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>Lesson</v>
       </c>
       <c r="E50" t="str">
@@ -1769,7 +1843,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>Lesson</v>
       </c>
       <c r="E51" t="str">
@@ -1784,9 +1858,109 @@
         <v xml:space="preserve">Learn Power BI In Arabic - #050 - </v>
       </c>
     </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="10"/>
+        <v>Lesson</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F52" s="2">
+        <v>45115</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Learn Power BI In Arabic - #051 - </v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="10"/>
+        <v>Lesson</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F53" s="2">
+        <v>45122</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Learn Power BI In Arabic - #052 - </v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="10"/>
+        <v>Lesson</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F54" s="2">
+        <v>45129</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Learn Power BI In Arabic - #053 - </v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="10"/>
+        <v>Lesson</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F55" s="2">
+        <v>45136</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Learn Power BI In Arabic - #054 - </v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="10"/>
+        <v>Lesson</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F56" s="2">
+        <v>45143</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Learn Power BI In Arabic - #055 - </v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1816,8 +1990,9 @@
     <hyperlink ref="G24" r:id="rId23"/>
     <hyperlink ref="G25" r:id="rId24"/>
     <hyperlink ref="G26" r:id="rId25"/>
+    <hyperlink ref="G27" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>https://youtu.be/9XzJ-EC8K_g</t>
+  </si>
+  <si>
+    <t>Demo #16 | Power BI Service | Dataflows</t>
+  </si>
+  <si>
+    <t>https://youtu.be/X8H5R2DbBLQ</t>
   </si>
 </sst>
 </file>
@@ -280,57 +286,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -620,7 +576,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,11 +1294,11 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" ref="D28:D30" si="4">IF(ISNUMBER(SEARCH("Demo",H28)), "Demo", "Lesson")</f>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" ref="E28:E30" si="5">TEXT(F28, "dddd")</f>
@@ -1351,9 +1307,12 @@
       <c r="F28" s="2">
         <v>44947</v>
       </c>
+      <c r="G28" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="H28" t="str">
         <f t="shared" ref="H28:H30" si="6">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A28,"000")," - ",B28)</f>
-        <v>Learn Power BI In Arabic - #027 - Power BI Service</v>
+        <v>Learn Power BI In Arabic - #027 - Demo #16 | Power BI Service | Dataflows</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1960,7 +1919,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1991,8 +1950,9 @@
     <hyperlink ref="G25" r:id="rId24"/>
     <hyperlink ref="G26" r:id="rId25"/>
     <hyperlink ref="G27" r:id="rId26"/>
+    <hyperlink ref="G28" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId27"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>https://youtu.be/X8H5R2DbBLQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/G48frTf9Zxw</t>
+  </si>
+  <si>
+    <t>Demo #17 | Power BI Service | Datasets</t>
   </si>
 </sst>
 </file>
@@ -575,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,11 +1326,11 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="4"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="5"/>
@@ -1333,9 +1339,12 @@
       <c r="F29" s="2">
         <v>44954</v>
       </c>
+      <c r="G29" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H29" t="str">
         <f t="shared" si="6"/>
-        <v>Learn Power BI In Arabic - #028 - Power BI Service</v>
+        <v>Learn Power BI In Arabic - #028 - Demo #17 | Power BI Service | Datasets</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1951,8 +1960,9 @@
     <hyperlink ref="G26" r:id="rId25"/>
     <hyperlink ref="G27" r:id="rId26"/>
     <hyperlink ref="G28" r:id="rId27"/>
+    <hyperlink ref="G29" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>Demo #17 | Power BI Service | Datasets</t>
+  </si>
+  <si>
+    <t>Demo #18 | Power BI Service | Datamarts</t>
+  </si>
+  <si>
+    <t>https://youtu.be/t8fEPwYI_Og</t>
   </si>
 </sst>
 </file>
@@ -581,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,11 +1358,11 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="4"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="5"/>
@@ -1365,9 +1371,12 @@
       <c r="F30" s="2">
         <v>44961</v>
       </c>
+      <c r="G30" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="H30" t="str">
         <f t="shared" si="6"/>
-        <v>Learn Power BI In Arabic - #029 - Power BI Service</v>
+        <v>Learn Power BI In Arabic - #029 - Demo #18 | Power BI Service | Datamarts</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1961,8 +1970,9 @@
     <hyperlink ref="G27" r:id="rId26"/>
     <hyperlink ref="G28" r:id="rId27"/>
     <hyperlink ref="G29" r:id="rId28"/>
+    <hyperlink ref="G30" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>https://youtu.be/t8fEPwYI_Og</t>
+  </si>
+  <si>
+    <t>Demo #19 | Power Query | Transform Data | Excel &amp; PDF &amp; Web Page</t>
+  </si>
+  <si>
+    <t>https://youtu.be/R14AHF0mvrc</t>
   </si>
 </sst>
 </file>
@@ -587,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,11 +1390,11 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="1"/>
@@ -1397,9 +1403,12 @@
       <c r="F31" s="2">
         <v>44968</v>
       </c>
+      <c r="G31" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="H31" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #030 - Power BI Service</v>
+        <v>Learn Power BI In Arabic - #030 - Demo #19 | Power Query | Transform Data | Excel &amp; PDF &amp; Web Page</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1971,8 +1980,9 @@
     <hyperlink ref="G28" r:id="rId27"/>
     <hyperlink ref="G29" r:id="rId28"/>
     <hyperlink ref="G30" r:id="rId29"/>
+    <hyperlink ref="G31" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId30"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>https://youtu.be/R14AHF0mvrc</t>
+  </si>
+  <si>
+    <t>https://youtu.be/JDG5JKJHBT8</t>
+  </si>
+  <si>
+    <t>Demo #20 | Power BI Service | Paginated Report</t>
   </si>
 </sst>
 </file>
@@ -594,7 +600,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,11 +1422,11 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" ref="D32" si="7">IF(ISNUMBER(SEARCH("Demo",H32)), "Demo", "Lesson")</f>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" ref="E32" si="8">TEXT(F32, "dddd")</f>
@@ -1429,9 +1435,12 @@
       <c r="F32" s="2">
         <v>44975</v>
       </c>
+      <c r="G32" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="H32" t="str">
         <f t="shared" ref="H32" si="9">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A32,"000")," - ",B32)</f>
-        <v>Learn Power BI In Arabic - #031 - Power BI Service</v>
+        <v>Learn Power BI In Arabic - #031 - Demo #20 | Power BI Service | Paginated Report</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1981,8 +1990,9 @@
     <hyperlink ref="G29" r:id="rId28"/>
     <hyperlink ref="G30" r:id="rId29"/>
     <hyperlink ref="G31" r:id="rId30"/>
+    <hyperlink ref="G32" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>Demo #20 | Power BI Service | Paginated Report</t>
+  </si>
+  <si>
+    <t>https://youtu.be/WeZ0alqP1RU</t>
+  </si>
+  <si>
+    <t>Demo #21 | Power BI Service | Dashboards</t>
   </si>
 </sst>
 </file>
@@ -599,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,11 +1454,11 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="1"/>
@@ -1461,9 +1467,12 @@
       <c r="F33" s="2">
         <v>44982</v>
       </c>
+      <c r="G33" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="H33" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #032 - Power BI Service</v>
+        <v>Learn Power BI In Arabic - #032 - Demo #21 | Power BI Service | Dashboards</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1471,7 +1480,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -1486,7 +1495,7 @@
       </c>
       <c r="H34" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #033 - Power BI Report Server</v>
+        <v>Learn Power BI In Arabic - #033 - Power BI Service</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1494,7 +1503,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -1509,7 +1518,7 @@
       </c>
       <c r="H35" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #034 - Power BI Report Server</v>
+        <v>Learn Power BI In Arabic - #034 - Power BI Service</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1517,7 +1526,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -1532,7 +1541,7 @@
       </c>
       <c r="H36" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #035 - Power BI Report Server</v>
+        <v>Learn Power BI In Arabic - #035 - Power BI Service</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1540,7 +1549,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -1555,7 +1564,7 @@
       </c>
       <c r="H37" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #036 - Power BI Report Server</v>
+        <v>Learn Power BI In Arabic - #036 - Power BI Service</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1586,7 +1595,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" ref="D39:D56" si="10">IF(ISNUMBER(SEARCH("Demo",H39)), "Demo", "Lesson")</f>
@@ -1601,7 +1610,7 @@
       </c>
       <c r="H39" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #038 - Power BI Embedded</v>
+        <v>Learn Power BI In Arabic - #038 - Power BI Report Server</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1609,7 +1618,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="10"/>
@@ -1624,7 +1633,7 @@
       </c>
       <c r="H40" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #039 - Power BI Embedded</v>
+        <v>Learn Power BI In Arabic - #039 - Power BI Report Server</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1632,7 +1641,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="10"/>
@@ -1647,7 +1656,7 @@
       </c>
       <c r="H41" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #040 - Power BI Mobile</v>
+        <v>Learn Power BI In Arabic - #040 - Power BI Report Server</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1655,7 +1664,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="10"/>
@@ -1670,13 +1679,16 @@
       </c>
       <c r="H42" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #041 - Power BI Mobile</v>
+        <v>Learn Power BI In Arabic - #041 - Power BI Report Server</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
       <c r="D43" t="str">
         <f t="shared" si="10"/>
         <v>Lesson</v>
@@ -1690,13 +1702,16 @@
       </c>
       <c r="H43" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #042 - </v>
+        <v>Learn Power BI In Arabic - #042 - Power BI Embedded</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
       <c r="D44" t="str">
         <f t="shared" si="10"/>
         <v>Lesson</v>
@@ -1710,13 +1725,16 @@
       </c>
       <c r="H44" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #043 - </v>
+        <v>Learn Power BI In Arabic - #043 - Power BI Embedded</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
       <c r="D45" t="str">
         <f t="shared" si="10"/>
         <v>Lesson</v>
@@ -1730,13 +1748,16 @@
       </c>
       <c r="H45" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #044 - </v>
+        <v>Learn Power BI In Arabic - #044 - Power BI Mobile</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
       <c r="D46" t="str">
         <f t="shared" si="10"/>
         <v>Lesson</v>
@@ -1750,7 +1771,7 @@
       </c>
       <c r="H46" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #045 - </v>
+        <v>Learn Power BI In Arabic - #045 - Power BI Mobile</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1991,8 +2012,9 @@
     <hyperlink ref="G30" r:id="rId29"/>
     <hyperlink ref="G31" r:id="rId30"/>
     <hyperlink ref="G32" r:id="rId31"/>
+    <hyperlink ref="G33" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>Demo #21 | Power BI Service | Dashboards</t>
+  </si>
+  <si>
+    <t>https://youtu.be/tLcRvsCFq70</t>
+  </si>
+  <si>
+    <t>Demo #22 | Power BI Service | Apps</t>
   </si>
 </sst>
 </file>
@@ -605,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,11 +1486,11 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="1"/>
@@ -1493,9 +1499,12 @@
       <c r="F34" s="2">
         <v>44989</v>
       </c>
+      <c r="G34" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="H34" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #033 - Power BI Service</v>
+        <v>Learn Power BI In Arabic - #033 - Demo #22 | Power BI Service | Apps</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2013,8 +2022,9 @@
     <hyperlink ref="G31" r:id="rId30"/>
     <hyperlink ref="G32" r:id="rId31"/>
     <hyperlink ref="G33" r:id="rId32"/>
+    <hyperlink ref="G34" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t>Demo #22 | Power BI Service | Apps</t>
+  </si>
+  <si>
+    <t>https://youtu.be/nny4vATvoPU</t>
+  </si>
+  <si>
+    <t>Demo #23 | Power BI Service | Scorecards &amp; Metrics</t>
   </si>
 </sst>
 </file>
@@ -612,7 +618,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,11 +1518,11 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="1"/>
@@ -1525,9 +1531,12 @@
       <c r="F35" s="2">
         <v>44996</v>
       </c>
+      <c r="G35" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="H35" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #034 - Power BI Service</v>
+        <v>Learn Power BI In Arabic - #034 - Demo #23 | Power BI Service | Scorecards &amp; Metrics</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2023,8 +2032,9 @@
     <hyperlink ref="G32" r:id="rId31"/>
     <hyperlink ref="G33" r:id="rId32"/>
     <hyperlink ref="G34" r:id="rId33"/>
+    <hyperlink ref="G35" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId34"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>Demo #23 | Power BI Service | Scorecards &amp; Metrics</t>
+  </si>
+  <si>
+    <t>Demo #24 | Power BI Service | Streaming Datasets</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Kfknij2RUUs</t>
   </si>
 </sst>
 </file>
@@ -618,7 +624,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,11 +1550,11 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="1"/>
@@ -1557,9 +1563,12 @@
       <c r="F36" s="2">
         <v>45003</v>
       </c>
+      <c r="G36" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="H36" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #035 - Power BI Service</v>
+        <v>Learn Power BI In Arabic - #035 - Demo #24 | Power BI Service | Streaming Datasets</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2033,8 +2042,9 @@
     <hyperlink ref="G33" r:id="rId32"/>
     <hyperlink ref="G34" r:id="rId33"/>
     <hyperlink ref="G35" r:id="rId34"/>
+    <hyperlink ref="G36" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>https://youtu.be/Kfknij2RUUs</t>
+  </si>
+  <si>
+    <t>Demo #25 | Power BI Service | Streaming Dataflows</t>
+  </si>
+  <si>
+    <t>https://youtu.be/V2AScL9hqII</t>
   </si>
 </sst>
 </file>
@@ -624,7 +630,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,11 +1582,11 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="1"/>
@@ -1589,9 +1595,12 @@
       <c r="F37" s="2">
         <v>45010</v>
       </c>
+      <c r="G37" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="H37" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #036 - Power BI Service</v>
+        <v>Learn Power BI In Arabic - #036 - Demo #25 | Power BI Service | Streaming Dataflows</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2043,8 +2052,9 @@
     <hyperlink ref="G34" r:id="rId33"/>
     <hyperlink ref="G35" r:id="rId34"/>
     <hyperlink ref="G36" r:id="rId35"/>
+    <hyperlink ref="G37" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t>https://youtu.be/V2AScL9hqII</t>
+  </si>
+  <si>
+    <t>https://youtu.be/UdoQyXoRbzc</t>
+  </si>
+  <si>
+    <t>Demo #26 | Power BI Service | Deployment Pipelines</t>
   </si>
 </sst>
 </file>
@@ -629,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,11 +1614,11 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="1"/>
@@ -1621,9 +1627,12 @@
       <c r="F38" s="2">
         <v>45017</v>
       </c>
+      <c r="G38" t="s">
+        <v>82</v>
+      </c>
       <c r="H38" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #037 - Power BI Report Server</v>
+        <v>Learn Power BI In Arabic - #037 - Demo #26 | Power BI Service | Deployment Pipelines</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">

--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -276,6 +276,15 @@
   </si>
   <si>
     <t>Demo #26 | Power BI Service | Deployment Pipelines</t>
+  </si>
+  <si>
+    <t>https://youtu.be/tP_muSzEIdg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/-21RoaDfELc</t>
+  </si>
+  <si>
+    <t>Power BI Service vs. Power BI Report Server</t>
   </si>
 </sst>
 </file>
@@ -346,7 +355,37 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -633,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,7 +750,7 @@
         <v>Lesson</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E56" si="1">TEXT(F3, "dddd")</f>
+        <f t="shared" ref="E3:E59" si="1">TEXT(F3, "dddd")</f>
         <v>Saturday</v>
       </c>
       <c r="F3" s="2">
@@ -1007,7 +1046,7 @@
         <v>32</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" ref="H14:H56" si="3">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A14,"000")," - ",B14)</f>
+        <f t="shared" ref="H14:H59" si="3">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A14,"000")," - ",B14)</f>
         <v>Learn Power BI In Arabic - #013 - Demo #04 | Database (SQL Server) | Import Mode</v>
       </c>
     </row>
@@ -1627,7 +1666,7 @@
       <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="1" t="s">
         <v>82</v>
       </c>
       <c r="H38" t="str">
@@ -1643,7 +1682,7 @@
         <v>27</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" ref="D39:D56" si="10">IF(ISNUMBER(SEARCH("Demo",H39)), "Demo", "Lesson")</f>
+        <f t="shared" ref="D39:D59" si="10">IF(ISNUMBER(SEARCH("Demo",H39)), "Demo", "Lesson")</f>
         <v>Lesson</v>
       </c>
       <c r="E39" t="str">
@@ -1652,6 +1691,9 @@
       </c>
       <c r="F39" s="2">
         <v>45024</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="3"/>
@@ -1663,7 +1705,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="10"/>
@@ -1676,9 +1718,12 @@
       <c r="F40" s="2">
         <v>45031</v>
       </c>
+      <c r="G40" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H40" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #039 - Power BI Report Server</v>
+        <v>Learn Power BI In Arabic - #039 - Power BI Service vs. Power BI Report Server</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1712,73 +1757,73 @@
         <v>27</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D42" si="11">IF(ISNUMBER(SEARCH("Demo",H42)), "Demo", "Lesson")</f>
         <v>Lesson</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E42" si="12">TEXT(F42, "dddd")</f>
         <v>Saturday</v>
       </c>
       <c r="F42" s="2">
         <v>45045</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H42" si="13">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A42,"000")," - ",B42)</f>
         <v>Learn Power BI In Arabic - #041 - Power BI Report Server</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D43:D44" si="14">IF(ISNUMBER(SEARCH("Demo",H43)), "Demo", "Lesson")</f>
         <v>Lesson</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E43:E44" si="15">TEXT(F43, "dddd")</f>
         <v>Saturday</v>
       </c>
       <c r="F43" s="2">
         <v>45052</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #042 - Power BI Embedded</v>
+        <f t="shared" ref="H43:H44" si="16">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A43,"000")," - ",B43)</f>
+        <v>Learn Power BI In Arabic - #041 - Power BI Report Server</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>Lesson</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>Saturday</v>
       </c>
       <c r="F44" s="2">
         <v>45059</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #043 - Power BI Embedded</v>
+        <f t="shared" si="16"/>
+        <v>Learn Power BI In Arabic - #041 - Power BI Report Server</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="10"/>
@@ -1793,15 +1838,15 @@
       </c>
       <c r="H45" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #044 - Power BI Mobile</v>
+        <v>Learn Power BI In Arabic - #041 - Power BI Report Server</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="10"/>
@@ -1816,12 +1861,15 @@
       </c>
       <c r="H46" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #045 - Power BI Mobile</v>
+        <v>Learn Power BI In Arabic - #042 - Power BI Embedded</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="10"/>
@@ -1836,12 +1884,15 @@
       </c>
       <c r="H47" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #046 - </v>
+        <v>Learn Power BI In Arabic - #043 - Power BI Embedded</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="10"/>
@@ -1856,12 +1907,15 @@
       </c>
       <c r="H48" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #047 - </v>
+        <v>Learn Power BI In Arabic - #044 - Power BI Mobile</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>29</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="10"/>
@@ -1876,12 +1930,12 @@
       </c>
       <c r="H49" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #048 - </v>
+        <v>Learn Power BI In Arabic - #045 - Power BI Mobile</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="10"/>
@@ -1896,12 +1950,12 @@
       </c>
       <c r="H50" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #049 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #046 - </v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="10"/>
@@ -1916,12 +1970,12 @@
       </c>
       <c r="H51" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #050 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #047 - </v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="10"/>
@@ -1936,12 +1990,12 @@
       </c>
       <c r="H52" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #051 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #048 - </v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="10"/>
@@ -1956,12 +2010,12 @@
       </c>
       <c r="H53" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #052 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #049 - </v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="10"/>
@@ -1976,12 +2030,12 @@
       </c>
       <c r="H54" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #053 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #050 - </v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="10"/>
@@ -1996,12 +2050,12 @@
       </c>
       <c r="H55" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #054 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #051 - </v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="10"/>
@@ -2016,12 +2070,72 @@
       </c>
       <c r="H56" t="str">
         <f t="shared" si="3"/>
+        <v xml:space="preserve">Learn Power BI In Arabic - #052 - </v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>53</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="10"/>
+        <v>Lesson</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F57" s="2">
+        <v>45150</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Learn Power BI In Arabic - #053 - </v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>54</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="10"/>
+        <v>Lesson</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F58" s="2">
+        <v>45157</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Learn Power BI In Arabic - #054 - </v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>55</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="10"/>
+        <v>Lesson</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F59" s="2">
+        <v>45164</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Learn Power BI In Arabic - #055 - </v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2062,8 +2176,11 @@
     <hyperlink ref="G35" r:id="rId34"/>
     <hyperlink ref="G36" r:id="rId35"/>
     <hyperlink ref="G37" r:id="rId36"/>
+    <hyperlink ref="G38" r:id="rId37"/>
+    <hyperlink ref="G39" r:id="rId38"/>
+    <hyperlink ref="G40" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>Power BI Service vs. Power BI Report Server</t>
+  </si>
+  <si>
+    <t>Demo #27 | Power BI Report Server | Download &amp; Install &amp; Configure</t>
+  </si>
+  <si>
+    <t>https://youtu.be/CJegu5-G7po</t>
   </si>
 </sst>
 </file>
@@ -355,37 +361,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -675,7 +651,7 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,11 +1707,11 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="10"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="1"/>
@@ -1744,9 +1720,12 @@
       <c r="F41" s="2">
         <v>45038</v>
       </c>
+      <c r="G41" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="H41" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #040 - Power BI Report Server</v>
+        <v>Learn Power BI In Arabic - #040 - Demo #27 | Power BI Report Server | Download &amp; Install &amp; Configure</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2179,8 +2158,9 @@
     <hyperlink ref="G38" r:id="rId37"/>
     <hyperlink ref="G39" r:id="rId38"/>
     <hyperlink ref="G40" r:id="rId39"/>
+    <hyperlink ref="G41" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
+  <pageSetup orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -291,6 +291,15 @@
   </si>
   <si>
     <t>https://youtu.be/CJegu5-G7po</t>
+  </si>
+  <si>
+    <t>Demo #28 | API (Facebook Graph API) | Import Mode | Part #1</t>
+  </si>
+  <si>
+    <t>Demo #28 | API (Facebook Graph API) | Import Mode | Part #2</t>
+  </si>
+  <si>
+    <t>https://youtu.be/-SSjlSnqREo</t>
   </si>
 </sst>
 </file>
@@ -650,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,11 +1742,11 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" ref="D42" si="11">IF(ISNUMBER(SEARCH("Demo",H42)), "Demo", "Lesson")</f>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" ref="E42" si="12">TEXT(F42, "dddd")</f>
@@ -1746,9 +1755,12 @@
       <c r="F42" s="2">
         <v>45045</v>
       </c>
+      <c r="G42" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="H42" t="str">
         <f t="shared" ref="H42" si="13">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A42,"000")," - ",B42)</f>
-        <v>Learn Power BI In Arabic - #041 - Power BI Report Server</v>
+        <v>Learn Power BI In Arabic - #041 - Demo #28 | API (Facebook Graph API) | Import Mode | Part #1</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1756,11 +1768,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" ref="D43:D44" si="14">IF(ISNUMBER(SEARCH("Demo",H43)), "Demo", "Lesson")</f>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" ref="E43:E44" si="15">TEXT(F43, "dddd")</f>
@@ -1771,12 +1783,12 @@
       </c>
       <c r="H43" t="str">
         <f t="shared" ref="H43:H44" si="16">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A43,"000")," - ",B43)</f>
-        <v>Learn Power BI In Arabic - #041 - Power BI Report Server</v>
+        <v>Learn Power BI In Arabic - #041 - Demo #28 | API (Facebook Graph API) | Import Mode | Part #2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>27</v>
@@ -1794,12 +1806,12 @@
       </c>
       <c r="H44" t="str">
         <f t="shared" si="16"/>
-        <v>Learn Power BI In Arabic - #041 - Power BI Report Server</v>
+        <v>Learn Power BI In Arabic - #042 - Power BI Report Server</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>27</v>
@@ -1817,12 +1829,12 @@
       </c>
       <c r="H45" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #041 - Power BI Report Server</v>
+        <v>Learn Power BI In Arabic - #043 - Power BI Report Server</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -1840,12 +1852,12 @@
       </c>
       <c r="H46" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #042 - Power BI Embedded</v>
+        <v>Learn Power BI In Arabic - #044 - Power BI Embedded</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>28</v>
@@ -1863,12 +1875,12 @@
       </c>
       <c r="H47" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #043 - Power BI Embedded</v>
+        <v>Learn Power BI In Arabic - #045 - Power BI Embedded</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>29</v>
@@ -1886,12 +1898,12 @@
       </c>
       <c r="H48" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #044 - Power BI Mobile</v>
+        <v>Learn Power BI In Arabic - #046 - Power BI Mobile</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>29</v>
@@ -1909,12 +1921,12 @@
       </c>
       <c r="H49" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #045 - Power BI Mobile</v>
+        <v>Learn Power BI In Arabic - #047 - Power BI Mobile</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="10"/>
@@ -1929,12 +1941,12 @@
       </c>
       <c r="H50" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #046 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #048 - </v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="10"/>
@@ -1949,12 +1961,12 @@
       </c>
       <c r="H51" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #047 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #049 - </v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="10"/>
@@ -1969,12 +1981,12 @@
       </c>
       <c r="H52" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #048 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #050 - </v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="10"/>
@@ -1989,12 +2001,12 @@
       </c>
       <c r="H53" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #049 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #051 - </v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="10"/>
@@ -2009,12 +2021,12 @@
       </c>
       <c r="H54" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #050 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #052 - </v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="10"/>
@@ -2029,12 +2041,12 @@
       </c>
       <c r="H55" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #051 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #053 - </v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="10"/>
@@ -2049,12 +2061,12 @@
       </c>
       <c r="H56" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #052 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #054 - </v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="10"/>
@@ -2069,12 +2081,12 @@
       </c>
       <c r="H57" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #053 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #055 - </v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="10"/>
@@ -2089,12 +2101,12 @@
       </c>
       <c r="H58" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #054 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #056 - </v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="10"/>
@@ -2109,7 +2121,7 @@
       </c>
       <c r="H59" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #055 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #057 - </v>
       </c>
     </row>
   </sheetData>
@@ -2159,8 +2171,9 @@
     <hyperlink ref="G39" r:id="rId38"/>
     <hyperlink ref="G40" r:id="rId39"/>
     <hyperlink ref="G41" r:id="rId40"/>
+    <hyperlink ref="G42" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId41"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>https://youtu.be/-SSjlSnqREo</t>
+  </si>
+  <si>
+    <t>https://youtu.be/btABANc_i9M</t>
   </si>
 </sst>
 </file>
@@ -352,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -362,7 +365,10 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -660,12 +666,12 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="69" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
@@ -675,7 +681,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -698,7 +704,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -724,7 +730,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -750,7 +756,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -776,7 +782,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -802,7 +808,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -828,7 +834,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -854,7 +860,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -880,7 +886,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -906,7 +912,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -932,7 +938,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -958,7 +964,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -984,7 +990,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -1010,7 +1016,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -1036,7 +1042,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -1062,7 +1068,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -1088,7 +1094,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -1114,7 +1120,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -1140,7 +1146,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -1166,7 +1172,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -1192,7 +1198,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -1218,7 +1224,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -1244,7 +1250,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -1270,7 +1276,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -1296,7 +1302,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -1322,7 +1328,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -1348,7 +1354,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -1374,7 +1380,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -1400,7 +1406,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -1426,7 +1432,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -1452,7 +1458,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -1478,7 +1484,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -1504,7 +1510,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -1530,7 +1536,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -1556,7 +1562,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -1582,7 +1588,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -1608,7 +1614,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -1634,7 +1640,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -1660,7 +1666,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -1686,7 +1692,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -1712,7 +1718,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -1738,7 +1744,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -1764,7 +1770,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="A43" s="6">
         <v>41</v>
       </c>
       <c r="B43" t="s">
@@ -1780,6 +1786,9 @@
       </c>
       <c r="F43" s="2">
         <v>45052</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" ref="H43:H44" si="16">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A43,"000")," - ",B43)</f>
@@ -1787,7 +1796,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="A44" s="6">
         <v>42</v>
       </c>
       <c r="B44" t="s">
@@ -1810,7 +1819,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45" s="6">
         <v>43</v>
       </c>
       <c r="B45" t="s">
@@ -1833,7 +1842,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="A46" s="6">
         <v>44</v>
       </c>
       <c r="B46" t="s">
@@ -1856,7 +1865,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47" s="6">
         <v>45</v>
       </c>
       <c r="B47" t="s">
@@ -1879,7 +1888,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="A48" s="6">
         <v>46</v>
       </c>
       <c r="B48" t="s">
@@ -1902,7 +1911,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49" s="6">
         <v>47</v>
       </c>
       <c r="B49" t="s">
@@ -1925,7 +1934,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="A50" s="6">
         <v>48</v>
       </c>
       <c r="D50" t="str">
@@ -1945,7 +1954,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="A51" s="6">
         <v>49</v>
       </c>
       <c r="D51" t="str">
@@ -1965,7 +1974,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="A52" s="6">
         <v>50</v>
       </c>
       <c r="D52" t="str">
@@ -1985,7 +1994,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="A53" s="6">
         <v>51</v>
       </c>
       <c r="D53" t="str">
@@ -2005,7 +2014,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+      <c r="A54" s="6">
         <v>52</v>
       </c>
       <c r="D54" t="str">
@@ -2025,7 +2034,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="A55" s="6">
         <v>53</v>
       </c>
       <c r="D55" t="str">
@@ -2045,7 +2054,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+      <c r="A56" s="6">
         <v>54</v>
       </c>
       <c r="D56" t="str">
@@ -2065,7 +2074,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
+      <c r="A57" s="6">
         <v>55</v>
       </c>
       <c r="D57" t="str">
@@ -2085,7 +2094,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
+      <c r="A58" s="6">
         <v>56</v>
       </c>
       <c r="D58" t="str">
@@ -2105,7 +2114,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
+      <c r="A59" s="6">
         <v>57</v>
       </c>
       <c r="D59" t="str">
@@ -2172,8 +2181,9 @@
     <hyperlink ref="G40" r:id="rId39"/>
     <hyperlink ref="G41" r:id="rId40"/>
     <hyperlink ref="G42" r:id="rId41"/>
+    <hyperlink ref="G43" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId42"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>https://youtu.be/btABANc_i9M</t>
+  </si>
+  <si>
+    <t>Demo #29 | Power BI Report Server | Publish Reports | Use Reports</t>
+  </si>
+  <si>
+    <t>https://youtu.be/lDAXOk4FiJQ</t>
   </si>
 </sst>
 </file>
@@ -666,7 +672,7 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,11 +1806,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="14"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="15"/>
@@ -1813,9 +1819,12 @@
       <c r="F44" s="2">
         <v>45059</v>
       </c>
+      <c r="G44" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="H44" t="str">
         <f t="shared" si="16"/>
-        <v>Learn Power BI In Arabic - #042 - Power BI Report Server</v>
+        <v>Learn Power BI In Arabic - #042 - Demo #29 | Power BI Report Server | Publish Reports | Use Reports</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2182,8 +2191,9 @@
     <hyperlink ref="G41" r:id="rId40"/>
     <hyperlink ref="G42" r:id="rId41"/>
     <hyperlink ref="G43" r:id="rId42"/>
+    <hyperlink ref="G44" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId43"/>
+  <pageSetup orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
   <si>
     <t>ID</t>
   </si>
@@ -309,6 +309,12 @@
   </si>
   <si>
     <t>https://youtu.be/lDAXOk4FiJQ</t>
+  </si>
+  <si>
+    <t>Demo #30 | Power BI Report Server | Scheduled Refresh</t>
+  </si>
+  <si>
+    <t>https://youtu.be/fdlv4vLdseA</t>
   </si>
 </sst>
 </file>
@@ -382,7 +388,37 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -669,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +783,7 @@
         <v>Lesson</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E59" si="1">TEXT(F3, "dddd")</f>
+        <f t="shared" ref="E3:E62" si="1">TEXT(F3, "dddd")</f>
         <v>Saturday</v>
       </c>
       <c r="F3" s="2">
@@ -1043,7 +1079,7 @@
         <v>32</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" ref="H14:H59" si="3">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A14,"000")," - ",B14)</f>
+        <f t="shared" ref="H14:H62" si="3">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A14,"000")," - ",B14)</f>
         <v>Learn Power BI In Arabic - #013 - Demo #04 | Database (SQL Server) | Import Mode</v>
       </c>
     </row>
@@ -1679,7 +1715,7 @@
         <v>27</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" ref="D39:D59" si="10">IF(ISNUMBER(SEARCH("Demo",H39)), "Demo", "Lesson")</f>
+        <f t="shared" ref="D39:D62" si="10">IF(ISNUMBER(SEARCH("Demo",H39)), "Demo", "Lesson")</f>
         <v>Lesson</v>
       </c>
       <c r="E39" t="str">
@@ -1832,11 +1868,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="10"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="1"/>
@@ -1845,9 +1881,12 @@
       <c r="F45" s="2">
         <v>45066</v>
       </c>
+      <c r="G45" t="s">
+        <v>96</v>
+      </c>
       <c r="H45" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #043 - Power BI Report Server</v>
+        <v>Learn Power BI In Arabic - #043 - Demo #30 | Power BI Report Server | Scheduled Refresh</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1855,7 +1894,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="10"/>
@@ -1870,61 +1909,61 @@
       </c>
       <c r="H46" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #044 - Power BI Embedded</v>
+        <v>Learn Power BI In Arabic - #044 - Power BI Report Server</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D47" si="17">IF(ISNUMBER(SEARCH("Demo",H47)), "Demo", "Lesson")</f>
         <v>Lesson</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E47" si="18">TEXT(F47, "dddd")</f>
         <v>Saturday</v>
       </c>
       <c r="F47" s="2">
-        <v>45080</v>
+        <v>45073</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #045 - Power BI Embedded</v>
+        <f t="shared" ref="H47" si="19">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A47,"000")," - ",B47)</f>
+        <v>Learn Power BI In Arabic - #044 - Power BI Report Server</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D48" si="20">IF(ISNUMBER(SEARCH("Demo",H48)), "Demo", "Lesson")</f>
         <v>Lesson</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E48" si="21">TEXT(F48, "dddd")</f>
         <v>Saturday</v>
       </c>
       <c r="F48" s="2">
-        <v>45087</v>
+        <v>45073</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #046 - Power BI Mobile</v>
+        <f t="shared" ref="H48" si="22">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A48,"000")," - ",B48)</f>
+        <v>Learn Power BI In Arabic - #044 - Power BI Report Server</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="10"/>
@@ -1935,16 +1974,19 @@
         <v>Saturday</v>
       </c>
       <c r="F49" s="2">
-        <v>45094</v>
+        <v>45073</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #047 - Power BI Mobile</v>
+        <v>Learn Power BI In Arabic - #044 - Power BI Embedded</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="10"/>
@@ -1955,16 +1997,19 @@
         <v>Saturday</v>
       </c>
       <c r="F50" s="2">
-        <v>45101</v>
+        <v>45080</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #048 - </v>
+        <v>Learn Power BI In Arabic - #045 - Power BI Embedded</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="10"/>
@@ -1975,16 +2020,19 @@
         <v>Saturday</v>
       </c>
       <c r="F51" s="2">
-        <v>45108</v>
+        <v>45087</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #049 - </v>
+        <v>Learn Power BI In Arabic - #046 - Power BI Mobile</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="10"/>
@@ -1995,16 +2043,16 @@
         <v>Saturday</v>
       </c>
       <c r="F52" s="2">
-        <v>45115</v>
+        <v>45094</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #050 - </v>
+        <v>Learn Power BI In Arabic - #047 - Power BI Mobile</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="10"/>
@@ -2015,16 +2063,16 @@
         <v>Saturday</v>
       </c>
       <c r="F53" s="2">
-        <v>45122</v>
+        <v>45101</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #051 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #048 - </v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="10"/>
@@ -2035,16 +2083,16 @@
         <v>Saturday</v>
       </c>
       <c r="F54" s="2">
-        <v>45129</v>
+        <v>45108</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #052 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #049 - </v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="10"/>
@@ -2055,16 +2103,16 @@
         <v>Saturday</v>
       </c>
       <c r="F55" s="2">
-        <v>45136</v>
+        <v>45115</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #053 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #050 - </v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="10"/>
@@ -2075,16 +2123,16 @@
         <v>Saturday</v>
       </c>
       <c r="F56" s="2">
-        <v>45143</v>
+        <v>45122</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #054 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #051 - </v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="10"/>
@@ -2095,16 +2143,16 @@
         <v>Saturday</v>
       </c>
       <c r="F57" s="2">
-        <v>45150</v>
+        <v>45129</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #055 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #052 - </v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="10"/>
@@ -2115,16 +2163,16 @@
         <v>Saturday</v>
       </c>
       <c r="F58" s="2">
-        <v>45157</v>
+        <v>45136</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #056 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #053 - </v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="10"/>
@@ -2135,16 +2183,91 @@
         <v>Saturday</v>
       </c>
       <c r="F59" s="2">
+        <v>45143</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Learn Power BI In Arabic - #054 - </v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>55</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="10"/>
+        <v>Lesson</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F60" s="2">
+        <v>45150</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Learn Power BI In Arabic - #055 - </v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>56</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="10"/>
+        <v>Lesson</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F61" s="2">
+        <v>45157</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Learn Power BI In Arabic - #056 - </v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>57</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="10"/>
+        <v>Lesson</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="F62" s="2">
         <v>45164</v>
       </c>
-      <c r="H59" t="str">
+      <c r="H62" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Learn Power BI In Arabic - #057 - </v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="F1:F45 F49:F1048576">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="lessThanOrEqual">
+      <formula>TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
+      <formula>TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
+      <formula>TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
   <si>
     <t>ID</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>https://youtu.be/fdlv4vLdseA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/vve3HeFJPVk</t>
+  </si>
+  <si>
+    <t>Demo #31 | Power BI Report Server | Access &amp; Share</t>
   </si>
 </sst>
 </file>
@@ -707,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,7 +1887,7 @@
       <c r="F45" s="2">
         <v>45066</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="1" t="s">
         <v>96</v>
       </c>
       <c r="H45" t="str">
@@ -1894,11 +1900,11 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="10"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="1"/>
@@ -1907,9 +1913,12 @@
       <c r="F46" s="2">
         <v>45073</v>
       </c>
+      <c r="G46" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="H46" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #044 - Power BI Report Server</v>
+        <v>Learn Power BI In Arabic - #044 - Demo #31 | Power BI Report Server | Access &amp; Share</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1928,7 +1937,7 @@
         <v>Saturday</v>
       </c>
       <c r="F47" s="2">
-        <v>45073</v>
+        <v>45080</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" ref="H47" si="19">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A47,"000")," - ",B47)</f>
@@ -1951,7 +1960,7 @@
         <v>Saturday</v>
       </c>
       <c r="F48" s="2">
-        <v>45073</v>
+        <v>45087</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" ref="H48" si="22">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A48,"000")," - ",B48)</f>
@@ -1974,7 +1983,7 @@
         <v>Saturday</v>
       </c>
       <c r="F49" s="2">
-        <v>45073</v>
+        <v>45094</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="3"/>
@@ -1997,7 +2006,7 @@
         <v>Saturday</v>
       </c>
       <c r="F50" s="2">
-        <v>45080</v>
+        <v>45101</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="3"/>
@@ -2020,7 +2029,7 @@
         <v>Saturday</v>
       </c>
       <c r="F51" s="2">
-        <v>45087</v>
+        <v>45108</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="3"/>
@@ -2043,7 +2052,7 @@
         <v>Saturday</v>
       </c>
       <c r="F52" s="2">
-        <v>45094</v>
+        <v>45115</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="3"/>
@@ -2063,7 +2072,7 @@
         <v>Saturday</v>
       </c>
       <c r="F53" s="2">
-        <v>45101</v>
+        <v>45122</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="3"/>
@@ -2083,7 +2092,7 @@
         <v>Saturday</v>
       </c>
       <c r="F54" s="2">
-        <v>45108</v>
+        <v>45129</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="3"/>
@@ -2103,7 +2112,7 @@
         <v>Saturday</v>
       </c>
       <c r="F55" s="2">
-        <v>45115</v>
+        <v>45136</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="3"/>
@@ -2123,7 +2132,7 @@
         <v>Saturday</v>
       </c>
       <c r="F56" s="2">
-        <v>45122</v>
+        <v>45143</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="3"/>
@@ -2143,7 +2152,7 @@
         <v>Saturday</v>
       </c>
       <c r="F57" s="2">
-        <v>45129</v>
+        <v>45150</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="3"/>
@@ -2163,7 +2172,7 @@
         <v>Saturday</v>
       </c>
       <c r="F58" s="2">
-        <v>45136</v>
+        <v>45157</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="3"/>
@@ -2183,7 +2192,7 @@
         <v>Saturday</v>
       </c>
       <c r="F59" s="2">
-        <v>45143</v>
+        <v>45164</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="3"/>
@@ -2203,7 +2212,7 @@
         <v>Saturday</v>
       </c>
       <c r="F60" s="2">
-        <v>45150</v>
+        <v>45171</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="3"/>
@@ -2223,7 +2232,7 @@
         <v>Saturday</v>
       </c>
       <c r="F61" s="2">
-        <v>45157</v>
+        <v>45178</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="3"/>
@@ -2243,7 +2252,7 @@
         <v>Saturday</v>
       </c>
       <c r="F62" s="2">
-        <v>45164</v>
+        <v>45185</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="3"/>
@@ -2251,23 +2260,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F45 F49:F1048576">
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="cellIs" dxfId="3" priority="12" operator="lessThanOrEqual">
-      <formula>TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
-      <formula>TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
-      <formula>TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2315,8 +2309,10 @@
     <hyperlink ref="G42" r:id="rId41"/>
     <hyperlink ref="G43" r:id="rId42"/>
     <hyperlink ref="G44" r:id="rId43"/>
+    <hyperlink ref="G46" r:id="rId44"/>
+    <hyperlink ref="G45" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId44"/>
+  <pageSetup orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -321,6 +321,12 @@
   </si>
   <si>
     <t>Demo #31 | Power BI Report Server | Access &amp; Share</t>
+  </si>
+  <si>
+    <t>https://youtu.be/3ZvmIccZFXo</t>
+  </si>
+  <si>
+    <t>Demo #32 | Power BI Report Server | Row-Level Security | RLS</t>
   </si>
 </sst>
 </file>
@@ -394,37 +400,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -713,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1926,11 +1902,11 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" ref="D47" si="17">IF(ISNUMBER(SEARCH("Demo",H47)), "Demo", "Lesson")</f>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" ref="E47" si="18">TEXT(F47, "dddd")</f>
@@ -1939,9 +1915,12 @@
       <c r="F47" s="2">
         <v>45080</v>
       </c>
+      <c r="G47" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="H47" t="str">
         <f t="shared" ref="H47" si="19">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A47,"000")," - ",B47)</f>
-        <v>Learn Power BI In Arabic - #044 - Power BI Report Server</v>
+        <v>Learn Power BI In Arabic - #044 - Demo #32 | Power BI Report Server | Row-Level Security | RLS</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2261,7 +2240,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2311,8 +2290,9 @@
     <hyperlink ref="G44" r:id="rId43"/>
     <hyperlink ref="G46" r:id="rId44"/>
     <hyperlink ref="G45" r:id="rId45"/>
+    <hyperlink ref="G47" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId46"/>
+  <pageSetup orientation="portrait" r:id="rId47"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -239,9 +239,6 @@
     <t>https://youtu.be/JDG5JKJHBT8</t>
   </si>
   <si>
-    <t>Demo #20 | Power BI Service | Paginated Report</t>
-  </si>
-  <si>
     <t>https://youtu.be/WeZ0alqP1RU</t>
   </si>
   <si>
@@ -327,6 +324,15 @@
   </si>
   <si>
     <t>Demo #32 | Power BI Report Server | Row-Level Security | RLS</t>
+  </si>
+  <si>
+    <t>Demo #33 | Power BI Report Server | Paginated Reports</t>
+  </si>
+  <si>
+    <t>https://youtu.be/DRDvCBih7uo</t>
+  </si>
+  <si>
+    <t>Demo #20 | Power BI Service | Paginated Reports</t>
   </si>
 </sst>
 </file>
@@ -689,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" ref="D32" si="7">IF(ISNUMBER(SEARCH("Demo",H32)), "Demo", "Lesson")</f>
@@ -1530,7 +1536,7 @@
       </c>
       <c r="H32" t="str">
         <f t="shared" ref="H32" si="9">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A32,"000")," - ",B32)</f>
-        <v>Learn Power BI In Arabic - #031 - Demo #20 | Power BI Service | Paginated Report</v>
+        <v>Learn Power BI In Arabic - #031 - Demo #20 | Power BI Service | Paginated Reports</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1538,7 +1544,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -1552,7 +1558,7 @@
         <v>44982</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="3"/>
@@ -1564,7 +1570,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -1578,7 +1584,7 @@
         <v>44989</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="3"/>
@@ -1590,7 +1596,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -1604,7 +1610,7 @@
         <v>44996</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="3"/>
@@ -1616,7 +1622,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -1630,7 +1636,7 @@
         <v>45003</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="3"/>
@@ -1642,7 +1648,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -1656,7 +1662,7 @@
         <v>45010</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="3"/>
@@ -1668,7 +1674,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -1682,7 +1688,7 @@
         <v>45017</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="3"/>
@@ -1708,7 +1714,7 @@
         <v>45024</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="3"/>
@@ -1720,7 +1726,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="10"/>
@@ -1734,7 +1740,7 @@
         <v>45031</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="3"/>
@@ -1746,7 +1752,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="10"/>
@@ -1760,7 +1766,7 @@
         <v>45038</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="3"/>
@@ -1772,7 +1778,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" ref="D42" si="11">IF(ISNUMBER(SEARCH("Demo",H42)), "Demo", "Lesson")</f>
@@ -1786,7 +1792,7 @@
         <v>45045</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" ref="H42" si="13">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A42,"000")," - ",B42)</f>
@@ -1798,7 +1804,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" ref="D43:D44" si="14">IF(ISNUMBER(SEARCH("Demo",H43)), "Demo", "Lesson")</f>
@@ -1812,7 +1818,7 @@
         <v>45052</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" ref="H43:H44" si="16">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A43,"000")," - ",B43)</f>
@@ -1824,7 +1830,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="14"/>
@@ -1838,7 +1844,7 @@
         <v>45059</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="16"/>
@@ -1850,7 +1856,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="10"/>
@@ -1864,7 +1870,7 @@
         <v>45066</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="3"/>
@@ -1876,7 +1882,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="10"/>
@@ -1890,7 +1896,7 @@
         <v>45073</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="3"/>
@@ -1902,7 +1908,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" ref="D47" si="17">IF(ISNUMBER(SEARCH("Demo",H47)), "Demo", "Lesson")</f>
@@ -1916,7 +1922,7 @@
         <v>45080</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" ref="H47" si="19">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A47,"000")," - ",B47)</f>
@@ -1928,11 +1934,11 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" ref="D48" si="20">IF(ISNUMBER(SEARCH("Demo",H48)), "Demo", "Lesson")</f>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" ref="E48" si="21">TEXT(F48, "dddd")</f>
@@ -1941,9 +1947,12 @@
       <c r="F48" s="2">
         <v>45087</v>
       </c>
+      <c r="G48" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="H48" t="str">
         <f t="shared" ref="H48" si="22">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A48,"000")," - ",B48)</f>
-        <v>Learn Power BI In Arabic - #044 - Power BI Report Server</v>
+        <v>Learn Power BI In Arabic - #044 - Demo #33 | Power BI Report Server | Paginated Reports</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2291,8 +2300,9 @@
     <hyperlink ref="G46" r:id="rId44"/>
     <hyperlink ref="G45" r:id="rId45"/>
     <hyperlink ref="G47" r:id="rId46"/>
+    <hyperlink ref="G48" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId47"/>
+  <pageSetup orientation="portrait" r:id="rId48"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="105">
   <si>
     <t>ID</t>
   </si>
@@ -333,6 +333,12 @@
   </si>
   <si>
     <t>Demo #20 | Power BI Service | Paginated Reports</t>
+  </si>
+  <si>
+    <t>https://youtu.be/y6DcFgEYatU</t>
+  </si>
+  <si>
+    <t>Demo #34 | Power BI Report Server | Data Sources</t>
   </si>
 </sst>
 </file>
@@ -696,7 +702,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,7 +1911,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>99</v>
@@ -1926,12 +1932,12 @@
       </c>
       <c r="H47" t="str">
         <f t="shared" ref="H47" si="19">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A47,"000")," - ",B47)</f>
-        <v>Learn Power BI In Arabic - #044 - Demo #32 | Power BI Report Server | Row-Level Security | RLS</v>
+        <v>Learn Power BI In Arabic - #045 - Demo #32 | Power BI Report Server | Row-Level Security | RLS</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>100</v>
@@ -1952,19 +1958,19 @@
       </c>
       <c r="H48" t="str">
         <f t="shared" ref="H48" si="22">CONCATENATE("Learn Power BI In Arabic - #",TEXT(A48,"000")," - ",B48)</f>
-        <v>Learn Power BI In Arabic - #044 - Demo #33 | Power BI Report Server | Paginated Reports</v>
+        <v>Learn Power BI In Arabic - #046 - Demo #33 | Power BI Report Server | Paginated Reports</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="10"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="1"/>
@@ -1973,17 +1979,20 @@
       <c r="F49" s="2">
         <v>45094</v>
       </c>
+      <c r="G49" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="H49" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #044 - Power BI Embedded</v>
+        <v>Learn Power BI In Arabic - #047 - Demo #34 | Power BI Report Server | Data Sources</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="10"/>
@@ -1998,15 +2007,15 @@
       </c>
       <c r="H50" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #045 - Power BI Embedded</v>
+        <v>Learn Power BI In Arabic - #048 - Power BI Report Server</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="10"/>
@@ -2021,15 +2030,15 @@
       </c>
       <c r="H51" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #046 - Power BI Mobile</v>
+        <v>Learn Power BI In Arabic - #049 - Power BI Report Server</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="10"/>
@@ -2044,12 +2053,15 @@
       </c>
       <c r="H52" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #047 - Power BI Mobile</v>
+        <v>Learn Power BI In Arabic - #050 - Power BI Embedded</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="10"/>
@@ -2064,12 +2076,15 @@
       </c>
       <c r="H53" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #048 - </v>
+        <v>Learn Power BI In Arabic - #051 - Power BI Embedded</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="10"/>
@@ -2084,12 +2099,15 @@
       </c>
       <c r="H54" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #049 - </v>
+        <v>Learn Power BI In Arabic - #052 - Power BI Mobile</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>29</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="10"/>
@@ -2104,12 +2122,12 @@
       </c>
       <c r="H55" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #050 - </v>
+        <v>Learn Power BI In Arabic - #053 - Power BI Mobile</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="10"/>
@@ -2124,12 +2142,12 @@
       </c>
       <c r="H56" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #051 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #054 - </v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="10"/>
@@ -2144,12 +2162,12 @@
       </c>
       <c r="H57" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #052 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #055 - </v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="10"/>
@@ -2164,12 +2182,12 @@
       </c>
       <c r="H58" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #053 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #056 - </v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="10"/>
@@ -2184,12 +2202,12 @@
       </c>
       <c r="H59" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #054 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #057 - </v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="10"/>
@@ -2204,12 +2222,12 @@
       </c>
       <c r="H60" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #055 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #058 - </v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="10"/>
@@ -2224,12 +2242,12 @@
       </c>
       <c r="H61" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #056 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #059 - </v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="10"/>
@@ -2244,7 +2262,7 @@
       </c>
       <c r="H62" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #057 - </v>
+        <v xml:space="preserve">Learn Power BI In Arabic - #060 - </v>
       </c>
     </row>
   </sheetData>
@@ -2301,8 +2319,9 @@
     <hyperlink ref="G45" r:id="rId45"/>
     <hyperlink ref="G47" r:id="rId46"/>
     <hyperlink ref="G48" r:id="rId47"/>
+    <hyperlink ref="G49" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId48"/>
+  <pageSetup orientation="portrait" r:id="rId49"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="107">
   <si>
     <t>ID</t>
   </si>
@@ -339,6 +339,12 @@
   </si>
   <si>
     <t>Demo #34 | Power BI Report Server | Data Sources</t>
+  </si>
+  <si>
+    <t>Demo #35 | Power BI Report Server | Datasets</t>
+  </si>
+  <si>
+    <t>https://youtu.be/BnfjzJrpvic</t>
   </si>
 </sst>
 </file>
@@ -702,7 +708,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,11 +1998,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="10"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="1"/>
@@ -2005,9 +2011,12 @@
       <c r="F50" s="2">
         <v>45101</v>
       </c>
+      <c r="G50" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="H50" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #048 - Power BI Report Server</v>
+        <v>Learn Power BI In Arabic - #048 - Demo #35 | Power BI Report Server | Datasets</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2320,8 +2329,9 @@
     <hyperlink ref="G47" r:id="rId46"/>
     <hyperlink ref="G48" r:id="rId47"/>
     <hyperlink ref="G49" r:id="rId48"/>
+    <hyperlink ref="G50" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId49"/>
+  <pageSetup orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
   <si>
     <t>ID</t>
   </si>
@@ -345,6 +345,12 @@
   </si>
   <si>
     <t>https://youtu.be/BnfjzJrpvic</t>
+  </si>
+  <si>
+    <t>Demo #36 | Power BI Report Server | KPIs</t>
+  </si>
+  <si>
+    <t>https://youtu.be/pcCGfwXsGjc</t>
   </si>
 </sst>
 </file>
@@ -707,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,11 +2030,11 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="10"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="1"/>
@@ -2037,9 +2043,12 @@
       <c r="F51" s="2">
         <v>45108</v>
       </c>
+      <c r="G51" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="H51" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #049 - Power BI Report Server</v>
+        <v>Learn Power BI In Arabic - #049 - Demo #36 | Power BI Report Server | KPIs</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2330,8 +2339,9 @@
     <hyperlink ref="G48" r:id="rId47"/>
     <hyperlink ref="G49" r:id="rId48"/>
     <hyperlink ref="G50" r:id="rId49"/>
+    <hyperlink ref="G51" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId50"/>
+  <pageSetup orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
   <si>
     <t>ID</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>https://youtu.be/pcCGfwXsGjc</t>
+  </si>
+  <si>
+    <t>https://youtu.be/774LPo8NJlY</t>
   </si>
 </sst>
 </file>
@@ -714,7 +717,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,6 +2071,9 @@
       </c>
       <c r="F52" s="2">
         <v>45115</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="3"/>
@@ -2340,8 +2346,9 @@
     <hyperlink ref="G49" r:id="rId48"/>
     <hyperlink ref="G50" r:id="rId49"/>
     <hyperlink ref="G51" r:id="rId50"/>
+    <hyperlink ref="G52" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId51"/>
+  <pageSetup orientation="portrait" r:id="rId52"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
   <si>
     <t>ID</t>
   </si>
@@ -354,6 +354,12 @@
   </si>
   <si>
     <t>https://youtu.be/774LPo8NJlY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/bT81WGXzGQ0</t>
+  </si>
+  <si>
+    <t>Demo #37 | Power BI Embedded | No Or Low Code</t>
   </si>
 </sst>
 </file>
@@ -716,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -2085,11 +2091,11 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="10"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="1"/>
@@ -2098,9 +2104,12 @@
       <c r="F53" s="2">
         <v>45122</v>
       </c>
+      <c r="G53" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="H53" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #051 - Power BI Embedded</v>
+        <v>Learn Power BI In Arabic - #051 - Demo #37 | Power BI Embedded | No Or Low Code</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2347,8 +2356,9 @@
     <hyperlink ref="G50" r:id="rId49"/>
     <hyperlink ref="G51" r:id="rId50"/>
     <hyperlink ref="G52" r:id="rId51"/>
+    <hyperlink ref="G53" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId52"/>
+  <pageSetup orientation="portrait" r:id="rId53"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
   <si>
     <t>ID</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>Demo #37 | Power BI Embedded | No Or Low Code</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Lexf7BCry54</t>
   </si>
 </sst>
 </file>
@@ -723,7 +726,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2129,6 +2132,9 @@
       </c>
       <c r="F54" s="2">
         <v>45129</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="3"/>
@@ -2357,8 +2363,9 @@
     <hyperlink ref="G51" r:id="rId50"/>
     <hyperlink ref="G52" r:id="rId51"/>
     <hyperlink ref="G53" r:id="rId52"/>
+    <hyperlink ref="G54" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId53"/>
+  <pageSetup orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>https://youtu.be/Lexf7BCry54</t>
+  </si>
+  <si>
+    <t>Demo #38 | Power BI Mobile | Mobile Layout</t>
+  </si>
+  <si>
+    <t>https://youtu.be/eqXnVBWMyxc</t>
   </si>
 </sst>
 </file>
@@ -725,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,11 +2152,11 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="10"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="1"/>
@@ -2159,9 +2165,12 @@
       <c r="F55" s="2">
         <v>45136</v>
       </c>
+      <c r="G55" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="H55" t="str">
         <f t="shared" si="3"/>
-        <v>Learn Power BI In Arabic - #053 - Power BI Mobile</v>
+        <v>Learn Power BI In Arabic - #053 - Demo #38 | Power BI Mobile | Mobile Layout</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2364,8 +2373,9 @@
     <hyperlink ref="G52" r:id="rId51"/>
     <hyperlink ref="G53" r:id="rId52"/>
     <hyperlink ref="G54" r:id="rId53"/>
+    <hyperlink ref="G55" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId54"/>
+  <pageSetup orientation="portrait" r:id="rId55"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>ID</t>
   </si>
@@ -369,6 +369,12 @@
   </si>
   <si>
     <t>https://youtu.be/eqXnVBWMyxc</t>
+  </si>
+  <si>
+    <t>Demo #39 | Power BI Buttons</t>
+  </si>
+  <si>
+    <t>https://youtu.be/q5BnP-dGPD8</t>
   </si>
 </sst>
 </file>
@@ -732,7 +738,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2177,9 +2183,12 @@
       <c r="A56" s="6">
         <v>54</v>
       </c>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
       <c r="D56" t="str">
         <f t="shared" si="10"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="1"/>
@@ -2188,9 +2197,12 @@
       <c r="F56" s="2">
         <v>45143</v>
       </c>
+      <c r="G56" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="H56" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #054 - </v>
+        <v>Learn Power BI In Arabic - #054 - Demo #39 | Power BI Buttons</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2374,8 +2386,9 @@
     <hyperlink ref="G53" r:id="rId52"/>
     <hyperlink ref="G54" r:id="rId53"/>
     <hyperlink ref="G55" r:id="rId54"/>
+    <hyperlink ref="G56" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId55"/>
+  <pageSetup orientation="portrait" r:id="rId56"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -375,6 +375,12 @@
   </si>
   <si>
     <t>https://youtu.be/q5BnP-dGPD8</t>
+  </si>
+  <si>
+    <t>https://youtu.be/S6F4hdJe6wA</t>
+  </si>
+  <si>
+    <t>Demo #40 | Power BI Bookmarks</t>
   </si>
 </sst>
 </file>
@@ -738,7 +744,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2209,9 +2215,12 @@
       <c r="A57" s="6">
         <v>55</v>
       </c>
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
       <c r="D57" t="str">
         <f t="shared" si="10"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="1"/>
@@ -2220,9 +2229,12 @@
       <c r="F57" s="2">
         <v>45150</v>
       </c>
+      <c r="G57" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="H57" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #055 - </v>
+        <v>Learn Power BI In Arabic - #055 - Demo #40 | Power BI Bookmarks</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2387,8 +2399,9 @@
     <hyperlink ref="G54" r:id="rId53"/>
     <hyperlink ref="G55" r:id="rId54"/>
     <hyperlink ref="G56" r:id="rId55"/>
+    <hyperlink ref="G57" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId56"/>
+  <pageSetup orientation="portrait" r:id="rId57"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -381,6 +381,12 @@
   </si>
   <si>
     <t>Demo #40 | Power BI Bookmarks</t>
+  </si>
+  <si>
+    <t>https://youtu.be/crZgRZWf9tw</t>
+  </si>
+  <si>
+    <t>Demo #41 | Power BI Parameters</t>
   </si>
 </sst>
 </file>
@@ -743,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,9 +2247,12 @@
       <c r="A58" s="6">
         <v>56</v>
       </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
       <c r="D58" t="str">
         <f t="shared" si="10"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="1"/>
@@ -2252,9 +2261,12 @@
       <c r="F58" s="2">
         <v>45157</v>
       </c>
+      <c r="G58" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="H58" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #056 - </v>
+        <v>Learn Power BI In Arabic - #056 - Demo #41 | Power BI Parameters</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2400,8 +2412,9 @@
     <hyperlink ref="G55" r:id="rId54"/>
     <hyperlink ref="G56" r:id="rId55"/>
     <hyperlink ref="G57" r:id="rId56"/>
+    <hyperlink ref="G58" r:id="rId57"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId57"/>
+  <pageSetup orientation="portrait" r:id="rId58"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>ID</t>
   </si>
@@ -387,6 +387,12 @@
   </si>
   <si>
     <t>Demo #41 | Power BI Parameters</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Lb1EmYQ1DOM</t>
+  </si>
+  <si>
+    <t>Demo #42 | Power BI Analytics Pane</t>
   </si>
 </sst>
 </file>
@@ -750,7 +756,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2273,9 +2279,12 @@
       <c r="A59" s="6">
         <v>57</v>
       </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
       <c r="D59" t="str">
         <f t="shared" si="10"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="1"/>
@@ -2284,9 +2293,12 @@
       <c r="F59" s="2">
         <v>45164</v>
       </c>
+      <c r="G59" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="H59" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #057 - </v>
+        <v>Learn Power BI In Arabic - #057 - Demo #42 | Power BI Analytics Pane</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2413,8 +2425,9 @@
     <hyperlink ref="G56" r:id="rId55"/>
     <hyperlink ref="G57" r:id="rId56"/>
     <hyperlink ref="G58" r:id="rId57"/>
+    <hyperlink ref="G59" r:id="rId58"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId58"/>
+  <pageSetup orientation="portrait" r:id="rId59"/>
 </worksheet>
 </file>
--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -393,6 +393,12 @@
   </si>
   <si>
     <t>Demo #42 | Power BI Analytics Pane</t>
+  </si>
+  <si>
+    <t>https://youtu.be/1voxG6_EezM</t>
+  </si>
+  <si>
+    <t>Demo #43 | Forecasting | Linear Regression | Decomposition Method</t>
   </si>
 </sst>
 </file>
@@ -753,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2305,9 +2311,12 @@
       <c r="A60" s="6">
         <v>58</v>
       </c>
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
       <c r="D60" t="str">
         <f t="shared" si="10"/>
-        <v>Lesson</v>
+        <v>Demo</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="1"/>
@@ -2316,49 +2325,12 @@
       <c r="F60" s="2">
         <v>45171</v>
       </c>
+      <c r="G60" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="H60" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #058 - </v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
-        <v>59</v>
-      </c>
-      <c r="D61" t="str">
-        <f t="shared" si="10"/>
-        <v>Lesson</v>
-      </c>
-      <c r="E61" t="str">
-        <f t="shared" si="1"/>
-        <v>Saturday</v>
-      </c>
-      <c r="F61" s="2">
-        <v>45178</v>
-      </c>
-      <c r="H61" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #059 - </v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
-        <v>60</v>
-      </c>
-      <c r="D62" t="str">
-        <f t="shared" si="10"/>
-        <v>Lesson</v>
-      </c>
-      <c r="E62" t="str">
-        <f t="shared" si="1"/>
-        <v>Saturday</v>
-      </c>
-      <c r="F62" s="2">
-        <v>45185</v>
-      </c>
-      <c r="H62" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Learn Power BI In Arabic - #060 - </v>
+        <v>Learn Power BI In Arabic - #058 - Demo #43 | Forecasting | Linear Regression | Decomposition Method</v>
       </c>
     </row>
   </sheetData>
@@ -2426,8 +2398,9 @@
     <hyperlink ref="G57" r:id="rId56"/>
     <hyperlink ref="G58" r:id="rId57"/>
     <hyperlink ref="G59" r:id="rId58"/>
+    <hyperlink ref="G60" r:id="rId59"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId59"/>
+  <pageSetup orientation="portrait" r:id="rId60"/>
 </worksheet>
 </file>